--- a/Summary/summary_binary.xlsx
+++ b/Summary/summary_binary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray/Desktop/26/Summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F175D424-6629-484F-9BA9-818057FB4C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42375D05-4730-6B4B-A23B-869781E3B5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{A597E320-F4E8-FE4E-B4D6-DC9DFDF39562}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" activeTab="4" xr2:uid="{A597E320-F4E8-FE4E-B4D6-DC9DFDF39562}"/>
   </bookViews>
   <sheets>
     <sheet name="VGG" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="54">
   <si>
     <t>Loss</t>
   </si>
@@ -205,6 +205,34 @@
   <si>
     <t>Embedded Transfer Learning</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPR</t>
+  </si>
+  <si>
+    <t>AdpGauThresh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bi_AGT_TL1_VGG19</t>
+  </si>
+  <si>
+    <t>Bi_AGT_TL1_ResNet152V2</t>
+  </si>
+  <si>
+    <t>Bi_AGT_TL1_NASNetLarge</t>
+  </si>
+  <si>
+    <t>Bi_AGT_TL1_DenseNet201</t>
+  </si>
+  <si>
+    <t>Bi_AGT_TL1_InceptionV3</t>
+  </si>
+  <si>
+    <t>Bi_AGT_TL1_InceptionResNetV2</t>
+  </si>
+  <si>
+    <t>Bi_AGT_TL1_Xception</t>
   </si>
 </sst>
 </file>
@@ -574,7 +602,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -670,6 +698,201 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -678,6 +901,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -701,105 +927,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -809,160 +936,67 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1285,16 +1319,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E29D67-F4BD-0F48-82AE-6106882544F2}">
-  <dimension ref="B1:S23"/>
+  <dimension ref="B1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="5" width="8.1640625" customWidth="1"/>
     <col min="6" max="6" width="8.5" customWidth="1"/>
@@ -1307,48 +1341,48 @@
   <sheetData>
     <row r="1" spans="2:19" ht="17" thickBot="1"/>
     <row r="2" spans="2:19" ht="25" customHeight="1" thickBot="1">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="96"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="2:19" ht="17" thickBot="1">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="35" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="2:19">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="33" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="22">
@@ -1374,8 +1408,8 @@
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="32"/>
-      <c r="C5" s="45" t="s">
+      <c r="B5" s="97"/>
+      <c r="C5" s="33" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="22">
@@ -1384,7 +1418,7 @@
       <c r="E5" s="22">
         <v>0.8</v>
       </c>
-      <c r="F5" s="50">
+      <c r="F5" s="36">
         <v>0.85</v>
       </c>
       <c r="G5" s="22">
@@ -1401,8 +1435,8 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="32"/>
-      <c r="C6" s="45" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="33" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="22">
@@ -1428,8 +1462,8 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="2:19" ht="17" thickBot="1">
-      <c r="B7" s="33"/>
-      <c r="C7" s="46" t="s">
+      <c r="B7" s="98"/>
+      <c r="C7" s="34" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="23">
@@ -1455,7 +1489,7 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="99" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -1486,7 +1520,7 @@
       <c r="S8" s="2"/>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="34"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="14" t="s">
         <v>1</v>
       </c>
@@ -1496,7 +1530,7 @@
       <c r="E9" s="24">
         <v>0.8</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="37">
         <v>0.85</v>
       </c>
       <c r="G9" s="24">
@@ -1515,7 +1549,7 @@
       <c r="S9" s="2"/>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="34"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="14" t="s">
         <v>2</v>
       </c>
@@ -1542,7 +1576,7 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="2:19" ht="17" thickBot="1">
-      <c r="B11" s="35"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="15" t="s">
         <v>4</v>
       </c>
@@ -1569,7 +1603,7 @@
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="102" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="16" t="s">
@@ -1600,7 +1634,7 @@
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="36"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="16" t="s">
         <v>1</v>
       </c>
@@ -1629,7 +1663,7 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="36"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="16" t="s">
         <v>2</v>
       </c>
@@ -1658,7 +1692,7 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="2:19" ht="17" thickBot="1">
-      <c r="B15" s="37"/>
+      <c r="B15" s="103"/>
       <c r="C15" s="17" t="s">
         <v>4</v>
       </c>
@@ -1687,7 +1721,7 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="104" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="18" t="s">
@@ -1716,7 +1750,7 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="2:19">
-      <c r="B17" s="38"/>
+      <c r="B17" s="104"/>
       <c r="C17" s="18" t="s">
         <v>1</v>
       </c>
@@ -1735,15 +1769,17 @@
       <c r="H17" s="10">
         <v>0.77</v>
       </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="2:19">
-      <c r="B18" s="38"/>
+      <c r="B18" s="104"/>
       <c r="C18" s="18" t="s">
         <v>2</v>
       </c>
@@ -1762,17 +1798,19 @@
       <c r="H18" s="10">
         <v>0.75</v>
       </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="2:19" ht="17" thickBot="1">
-      <c r="B19" s="39"/>
+      <c r="B19" s="105"/>
       <c r="C19" s="19" t="s">
         <v>4</v>
       </c>
@@ -1791,7 +1829,9 @@
       <c r="H19" s="11">
         <v>0.79</v>
       </c>
-      <c r="L19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -1801,7 +1841,7 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="106" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="20" t="s">
@@ -1822,7 +1862,9 @@
       <c r="H20" s="12">
         <v>1.31</v>
       </c>
-      <c r="L20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -1832,7 +1874,7 @@
       <c r="S20" s="2"/>
     </row>
     <row r="21" spans="2:19">
-      <c r="B21" s="40"/>
+      <c r="B21" s="106"/>
       <c r="C21" s="20" t="s">
         <v>1</v>
       </c>
@@ -1851,7 +1893,9 @@
       <c r="H21" s="12">
         <v>0.5</v>
       </c>
-      <c r="L21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -1861,7 +1905,7 @@
       <c r="S21" s="2"/>
     </row>
     <row r="22" spans="2:19">
-      <c r="B22" s="40"/>
+      <c r="B22" s="106"/>
       <c r="C22" s="20" t="s">
         <v>2</v>
       </c>
@@ -1882,7 +1926,7 @@
       </c>
     </row>
     <row r="23" spans="2:19" ht="17" thickBot="1">
-      <c r="B23" s="41"/>
+      <c r="B23" s="107"/>
       <c r="C23" s="21" t="s">
         <v>4</v>
       </c>
@@ -1902,14 +1946,101 @@
         <v>1</v>
       </c>
     </row>
+    <row r="24" spans="2:19">
+      <c r="B24" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="30">
+        <v>0.86</v>
+      </c>
+      <c r="E24" s="30">
+        <v>0.53</v>
+      </c>
+      <c r="F24" s="30">
+        <v>0.43</v>
+      </c>
+      <c r="G24" s="30">
+        <v>0.42</v>
+      </c>
+      <c r="H24" s="12">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19">
+      <c r="B25" s="106"/>
+      <c r="C25" s="130" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="30">
+        <v>0.74</v>
+      </c>
+      <c r="E25" s="30">
+        <v>0.78</v>
+      </c>
+      <c r="F25" s="30">
+        <v>0.82</v>
+      </c>
+      <c r="G25" s="30">
+        <v>0.81</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19">
+      <c r="B26" s="106"/>
+      <c r="C26" s="130" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="30">
+        <v>0.75</v>
+      </c>
+      <c r="E26" s="30">
+        <v>0.78</v>
+      </c>
+      <c r="F26" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="G26" s="30">
+        <v>0.82</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" ht="17" thickBot="1">
+      <c r="B27" s="107"/>
+      <c r="C27" s="131" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="31">
+        <v>0.73</v>
+      </c>
+      <c r="E27" s="31">
+        <v>0.79</v>
+      </c>
+      <c r="F27" s="31">
+        <v>0.85</v>
+      </c>
+      <c r="G27" s="31">
+        <v>0.81</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0.85</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B24:B27"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B20:B23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1918,16 +2049,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F077D75E-3BED-AE4E-AC03-A6A12C77AAC6}">
-  <dimension ref="B1:N23"/>
+  <dimension ref="B1:N27"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B24" sqref="B24:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
     <col min="6" max="6" width="20.83203125" customWidth="1"/>
     <col min="7" max="7" width="25.83203125" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" customWidth="1"/>
@@ -1937,126 +2068,126 @@
   <sheetData>
     <row r="1" spans="2:14" ht="17" thickBot="1"/>
     <row r="2" spans="2:14" ht="24" thickBot="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="77"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="110"/>
     </row>
     <row r="3" spans="2:14" ht="17" thickBot="1">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="39" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="41">
         <v>0.69</v>
       </c>
-      <c r="E4" s="55">
+      <c r="E4" s="41">
         <v>0.45</v>
       </c>
-      <c r="F4" s="55">
+      <c r="F4" s="41">
         <v>0.49</v>
       </c>
-      <c r="G4" s="55">
+      <c r="G4" s="41">
         <v>2.11</v>
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="78"/>
-      <c r="C5" s="54" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="41">
         <v>0.5</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="42">
         <v>0.84</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="41">
         <v>0.76</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="41">
         <v>0.78</v>
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="78"/>
-      <c r="C6" s="54" t="s">
+      <c r="B6" s="112"/>
+      <c r="C6" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="41">
         <v>0</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="41">
         <v>0.83</v>
       </c>
-      <c r="F6" s="55">
+      <c r="F6" s="41">
         <v>0.94</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="41">
         <v>0.93</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="17" thickBot="1">
-      <c r="B7" s="80"/>
-      <c r="C7" s="57" t="s">
+      <c r="B7" s="113"/>
+      <c r="C7" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="44">
         <v>0</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="44">
         <v>0.86</v>
       </c>
-      <c r="F7" s="58">
+      <c r="F7" s="44">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G7" s="58">
+      <c r="G7" s="44">
         <v>0.59</v>
       </c>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="46">
         <v>0.7</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="46">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="46">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="46">
         <v>2.23</v>
       </c>
       <c r="J8" s="1"/>
@@ -2066,20 +2197,20 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="81"/>
-      <c r="C9" s="59" t="s">
+      <c r="B9" s="115"/>
+      <c r="C9" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="46">
         <v>0.71</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="46">
         <v>0.77</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="46">
         <v>0.71</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G9" s="46">
         <v>0.65</v>
       </c>
       <c r="J9" s="1"/>
@@ -2089,20 +2220,20 @@
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="81"/>
-      <c r="C10" s="59" t="s">
+      <c r="B10" s="115"/>
+      <c r="C10" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="46">
         <v>0.72</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="46">
         <v>0.73</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="46">
         <v>0.81</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G10" s="46">
         <v>0.79</v>
       </c>
       <c r="J10" s="1"/>
@@ -2112,20 +2243,20 @@
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="2:14" ht="17" thickBot="1">
-      <c r="B11" s="83"/>
-      <c r="C11" s="61" t="s">
+      <c r="B11" s="116"/>
+      <c r="C11" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="48">
         <v>0.7</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="48">
         <v>0.84</v>
       </c>
-      <c r="F11" s="62">
+      <c r="F11" s="48">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G11" s="62">
+      <c r="G11" s="48">
         <v>0.4</v>
       </c>
       <c r="J11" s="1"/>
@@ -2135,22 +2266,22 @@
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="50">
         <v>0.72</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="50">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F12" s="50">
         <v>0.59</v>
       </c>
-      <c r="G12" s="64">
+      <c r="G12" s="50">
         <v>2.2400000000000002</v>
       </c>
       <c r="J12" s="1"/>
@@ -2160,215 +2291,290 @@
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="84"/>
-      <c r="C13" s="63" t="s">
+      <c r="B13" s="118"/>
+      <c r="C13" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="64">
+      <c r="D13" s="50">
         <v>0.66</v>
       </c>
-      <c r="E13" s="64">
+      <c r="E13" s="50">
         <v>0.73</v>
       </c>
-      <c r="F13" s="64">
+      <c r="F13" s="50">
         <v>0.69</v>
       </c>
-      <c r="G13" s="64">
+      <c r="G13" s="50">
         <v>0.63</v>
       </c>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="84"/>
-      <c r="C14" s="63" t="s">
+      <c r="B14" s="118"/>
+      <c r="C14" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="64">
+      <c r="D14" s="50">
         <v>0.65</v>
       </c>
-      <c r="E14" s="64">
+      <c r="E14" s="50">
         <v>0.7</v>
       </c>
-      <c r="F14" s="64">
+      <c r="F14" s="50">
         <v>0.66</v>
       </c>
-      <c r="G14" s="64">
+      <c r="G14" s="50">
         <v>0.59</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="17" thickBot="1">
-      <c r="B15" s="86"/>
-      <c r="C15" s="65" t="s">
+      <c r="B15" s="119"/>
+      <c r="C15" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="66">
+      <c r="D15" s="52">
         <v>0.69</v>
       </c>
-      <c r="E15" s="66">
+      <c r="E15" s="52">
         <v>0.83</v>
       </c>
-      <c r="F15" s="66">
+      <c r="F15" s="52">
         <v>0.81</v>
       </c>
-      <c r="G15" s="66">
+      <c r="G15" s="52">
         <v>0.84</v>
       </c>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="68">
+      <c r="D16" s="54">
         <v>0.89</v>
       </c>
-      <c r="E16" s="68">
+      <c r="E16" s="54">
         <v>0.56000000000000005</v>
       </c>
-      <c r="F16" s="68">
+      <c r="F16" s="54">
         <v>0.49</v>
       </c>
-      <c r="G16" s="68">
+      <c r="G16" s="54">
         <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="87"/>
-      <c r="C17" s="67" t="s">
+      <c r="B17" s="121"/>
+      <c r="C17" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="68">
+      <c r="D17" s="54">
         <v>0.71</v>
       </c>
-      <c r="E17" s="68">
+      <c r="E17" s="54">
         <v>0.78</v>
       </c>
-      <c r="F17" s="68">
+      <c r="F17" s="54">
         <v>0.78</v>
       </c>
-      <c r="G17" s="68">
+      <c r="G17" s="54">
         <v>0.77</v>
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="87"/>
-      <c r="C18" s="67" t="s">
+      <c r="B18" s="121"/>
+      <c r="C18" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="68">
+      <c r="D18" s="54">
         <v>0.71</v>
       </c>
-      <c r="E18" s="68">
+      <c r="E18" s="54">
         <v>0.81</v>
       </c>
-      <c r="F18" s="68">
+      <c r="F18" s="54">
         <v>0.83</v>
       </c>
-      <c r="G18" s="68">
+      <c r="G18" s="54">
         <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="17" thickBot="1">
-      <c r="B19" s="89"/>
-      <c r="C19" s="69" t="s">
+      <c r="B19" s="122"/>
+      <c r="C19" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="70">
+      <c r="D19" s="56">
         <v>0.72</v>
       </c>
-      <c r="E19" s="70">
+      <c r="E19" s="56">
         <v>0.74</v>
       </c>
-      <c r="F19" s="70">
+      <c r="F19" s="56">
         <v>0.71</v>
       </c>
-      <c r="G19" s="70">
+      <c r="G19" s="56">
         <v>0.73</v>
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="91" t="s">
+      <c r="B20" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="72">
+      <c r="D20" s="58">
         <v>0.69</v>
       </c>
-      <c r="E20" s="72">
+      <c r="E20" s="58">
         <v>0.69</v>
       </c>
-      <c r="F20" s="72">
+      <c r="F20" s="58">
         <v>0.69</v>
       </c>
-      <c r="G20" s="72">
+      <c r="G20" s="58">
         <v>2.35</v>
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="90"/>
-      <c r="C21" s="71" t="s">
+      <c r="B21" s="124"/>
+      <c r="C21" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="72">
+      <c r="D21" s="58">
         <v>0.5</v>
       </c>
-      <c r="E21" s="72">
+      <c r="E21" s="58">
         <v>0.5</v>
       </c>
-      <c r="F21" s="72">
+      <c r="F21" s="58">
         <v>0.5</v>
       </c>
-      <c r="G21" s="72">
+      <c r="G21" s="58">
         <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="90"/>
-      <c r="C22" s="71" t="s">
+      <c r="B22" s="124"/>
+      <c r="C22" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="72">
+      <c r="D22" s="58">
         <v>0</v>
       </c>
-      <c r="E22" s="72">
+      <c r="E22" s="58">
         <v>0.5</v>
       </c>
-      <c r="F22" s="72">
+      <c r="F22" s="58">
         <v>0.5</v>
       </c>
-      <c r="G22" s="72">
+      <c r="G22" s="58">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="17" thickBot="1">
-      <c r="B23" s="92"/>
-      <c r="C23" s="73" t="s">
+      <c r="B23" s="125"/>
+      <c r="C23" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="74">
+      <c r="D23" s="60">
         <v>0</v>
       </c>
-      <c r="E23" s="74">
+      <c r="E23" s="60">
         <v>1</v>
       </c>
-      <c r="F23" s="74">
+      <c r="F23" s="60">
         <v>1</v>
       </c>
-      <c r="G23" s="74">
+      <c r="G23" s="60">
         <v>0</v>
       </c>
     </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="58">
+        <v>0.81</v>
+      </c>
+      <c r="E24" s="58">
+        <v>0.49</v>
+      </c>
+      <c r="F24" s="58">
+        <v>0.48</v>
+      </c>
+      <c r="G24" s="58">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="106"/>
+      <c r="C25" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="58">
+        <v>0.72</v>
+      </c>
+      <c r="E25" s="58">
+        <v>0.8</v>
+      </c>
+      <c r="F25" s="58">
+        <v>0.78</v>
+      </c>
+      <c r="G25" s="58">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="106"/>
+      <c r="C26" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="58">
+        <v>0.72</v>
+      </c>
+      <c r="E26" s="58">
+        <v>0.8</v>
+      </c>
+      <c r="F26" s="58">
+        <v>0.79</v>
+      </c>
+      <c r="G26" s="58">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="17" thickBot="1">
+      <c r="B27" s="107"/>
+      <c r="C27" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="60">
+        <v>0.72</v>
+      </c>
+      <c r="E27" s="60">
+        <v>0.81</v>
+      </c>
+      <c r="F27" s="60">
+        <v>0.77</v>
+      </c>
+      <c r="G27" s="60">
+        <v>0.91</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B24:B27"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B20:B23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2377,16 +2583,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06DE2F5-F4A4-194A-8263-4AFED20D3274}">
-  <dimension ref="B1:N23"/>
+  <dimension ref="B1:N27"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="B24" sqref="B24:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
     <col min="6" max="6" width="23.33203125" customWidth="1"/>
@@ -2395,106 +2601,106 @@
   <sheetData>
     <row r="1" spans="2:14" ht="17" thickBot="1"/>
     <row r="2" spans="2:14" ht="24" thickBot="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="77"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="110"/>
     </row>
     <row r="3" spans="2:14" ht="17" thickBot="1">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="39" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="41">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E4" s="55">
+      <c r="E4" s="41">
         <v>0.39</v>
       </c>
-      <c r="F4" s="55">
+      <c r="F4" s="41">
         <v>0.41</v>
       </c>
-      <c r="G4" s="55">
+      <c r="G4" s="41">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="78"/>
-      <c r="C5" s="54" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="41">
         <v>0.77</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="42">
         <v>0.84</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="41">
         <v>0.81</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="41">
         <v>0.83</v>
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="78"/>
-      <c r="C6" s="54" t="s">
+      <c r="B6" s="112"/>
+      <c r="C6" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="41">
         <v>0.82</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="41">
         <v>0.88</v>
       </c>
-      <c r="F6" s="55">
+      <c r="F6" s="41">
         <v>0.91</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="41">
         <v>0.89</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="17" thickBot="1">
-      <c r="B7" s="80"/>
-      <c r="C7" s="57" t="s">
+      <c r="B7" s="113"/>
+      <c r="C7" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="44">
         <v>0.71</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="44">
         <v>0.78</v>
       </c>
-      <c r="F7" s="58">
+      <c r="F7" s="44">
         <v>0.68</v>
       </c>
-      <c r="G7" s="58">
+      <c r="G7" s="44">
         <v>0.76</v>
       </c>
       <c r="I7" s="1"/>
@@ -2504,22 +2710,22 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="46">
         <v>0.77</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="46">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="46">
         <v>0.5</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="46">
         <v>1.24</v>
       </c>
       <c r="I8" s="1"/>
@@ -2530,20 +2736,20 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="81"/>
-      <c r="C9" s="59" t="s">
+      <c r="B9" s="115"/>
+      <c r="C9" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="46">
         <v>0.71</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="46">
         <v>0.76</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="46">
         <v>0.75</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G9" s="46">
         <v>0.74</v>
       </c>
       <c r="I9" s="1"/>
@@ -2554,20 +2760,20 @@
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="81"/>
-      <c r="C10" s="59" t="s">
+      <c r="B10" s="115"/>
+      <c r="C10" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="46">
         <v>0.67</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="46">
         <v>0.72</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="46">
         <v>0.73</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G10" s="46">
         <v>0.79</v>
       </c>
       <c r="I10" s="1"/>
@@ -2578,20 +2784,20 @@
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="2:14" ht="17" thickBot="1">
-      <c r="B11" s="83"/>
-      <c r="C11" s="61" t="s">
+      <c r="B11" s="116"/>
+      <c r="C11" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="48">
         <v>0.81</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="48">
         <v>0.85</v>
       </c>
-      <c r="F11" s="62">
+      <c r="F11" s="48">
         <v>0.81</v>
       </c>
-      <c r="G11" s="62">
+      <c r="G11" s="48">
         <v>0.65</v>
       </c>
       <c r="I11" s="1"/>
@@ -2602,22 +2808,22 @@
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="50">
         <v>0.72</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="50">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F12" s="50">
         <v>0.59</v>
       </c>
-      <c r="G12" s="64">
+      <c r="G12" s="50">
         <v>2.2400000000000002</v>
       </c>
       <c r="J12" s="1"/>
@@ -2627,215 +2833,290 @@
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="84"/>
-      <c r="C13" s="63" t="s">
+      <c r="B13" s="118"/>
+      <c r="C13" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="64">
+      <c r="D13" s="50">
         <v>0.66</v>
       </c>
-      <c r="E13" s="64">
+      <c r="E13" s="50">
         <v>0.73</v>
       </c>
-      <c r="F13" s="64">
+      <c r="F13" s="50">
         <v>0.69</v>
       </c>
-      <c r="G13" s="64">
+      <c r="G13" s="50">
         <v>0.63</v>
       </c>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="84"/>
-      <c r="C14" s="63" t="s">
+      <c r="B14" s="118"/>
+      <c r="C14" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="64">
+      <c r="D14" s="50">
         <v>0.65</v>
       </c>
-      <c r="E14" s="64">
+      <c r="E14" s="50">
         <v>0.7</v>
       </c>
-      <c r="F14" s="64">
+      <c r="F14" s="50">
         <v>0.66</v>
       </c>
-      <c r="G14" s="64">
+      <c r="G14" s="50">
         <v>0.59</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="17" thickBot="1">
-      <c r="B15" s="86"/>
-      <c r="C15" s="65" t="s">
+      <c r="B15" s="119"/>
+      <c r="C15" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="66">
+      <c r="D15" s="52">
         <v>0.69</v>
       </c>
-      <c r="E15" s="66">
+      <c r="E15" s="52">
         <v>0.83</v>
       </c>
-      <c r="F15" s="66">
+      <c r="F15" s="52">
         <v>0.81</v>
       </c>
-      <c r="G15" s="66">
+      <c r="G15" s="52">
         <v>0.84</v>
       </c>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="68">
+      <c r="D16" s="54">
         <v>0.86</v>
       </c>
-      <c r="E16" s="68">
+      <c r="E16" s="54">
         <v>0.59</v>
       </c>
-      <c r="F16" s="68">
+      <c r="F16" s="54">
         <v>0.49</v>
       </c>
-      <c r="G16" s="68">
+      <c r="G16" s="54">
         <v>1.2</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="87"/>
-      <c r="C17" s="67" t="s">
+      <c r="B17" s="121"/>
+      <c r="C17" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="68">
+      <c r="D17" s="54">
         <v>0.74</v>
       </c>
-      <c r="E17" s="68">
+      <c r="E17" s="54">
         <v>0.77</v>
       </c>
-      <c r="F17" s="68">
+      <c r="F17" s="54">
         <v>0.78</v>
       </c>
-      <c r="G17" s="68">
+      <c r="G17" s="54">
         <v>0.79</v>
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="87"/>
-      <c r="C18" s="67" t="s">
+      <c r="B18" s="121"/>
+      <c r="C18" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="68">
+      <c r="D18" s="54">
         <v>0.73</v>
       </c>
-      <c r="E18" s="68">
+      <c r="E18" s="54">
         <v>0.79</v>
       </c>
-      <c r="F18" s="68">
+      <c r="F18" s="54">
         <v>0.77</v>
       </c>
-      <c r="G18" s="68">
+      <c r="G18" s="54">
         <v>0.81</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="17" thickBot="1">
-      <c r="B19" s="89"/>
-      <c r="C19" s="69" t="s">
+      <c r="B19" s="122"/>
+      <c r="C19" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="70">
+      <c r="D19" s="56">
         <v>0.76</v>
       </c>
-      <c r="E19" s="70">
+      <c r="E19" s="56">
         <v>0.75</v>
       </c>
-      <c r="F19" s="70">
+      <c r="F19" s="56">
         <v>0.8</v>
       </c>
-      <c r="G19" s="70">
+      <c r="G19" s="56">
         <v>0.75</v>
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="91" t="s">
+      <c r="B20" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="72">
+      <c r="D20" s="58">
         <v>0.69</v>
       </c>
-      <c r="E20" s="72">
+      <c r="E20" s="58">
         <v>0.68</v>
       </c>
-      <c r="F20" s="72">
+      <c r="F20" s="58">
         <v>0.69</v>
       </c>
-      <c r="G20" s="72">
+      <c r="G20" s="58">
         <v>1.37</v>
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="90"/>
-      <c r="C21" s="71" t="s">
+      <c r="B21" s="124"/>
+      <c r="C21" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="72">
+      <c r="D21" s="58">
         <v>0.5</v>
       </c>
-      <c r="E21" s="72">
+      <c r="E21" s="58">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F21" s="72">
+      <c r="F21" s="58">
         <v>0.52</v>
       </c>
-      <c r="G21" s="72">
+      <c r="G21" s="58">
         <v>0.61</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="90"/>
-      <c r="C22" s="71" t="s">
+      <c r="B22" s="124"/>
+      <c r="C22" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="72">
+      <c r="D22" s="58">
         <v>0.5</v>
       </c>
-      <c r="E22" s="72">
+      <c r="E22" s="58">
         <v>0.53</v>
       </c>
-      <c r="F22" s="72">
+      <c r="F22" s="58">
         <v>0.51</v>
       </c>
-      <c r="G22" s="72">
+      <c r="G22" s="58">
         <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="17" thickBot="1">
-      <c r="B23" s="92"/>
-      <c r="C23" s="73" t="s">
+      <c r="B23" s="125"/>
+      <c r="C23" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="74">
+      <c r="D23" s="60">
         <v>1</v>
       </c>
-      <c r="E23" s="74">
+      <c r="E23" s="60">
         <v>0.97</v>
       </c>
-      <c r="F23" s="74">
+      <c r="F23" s="60">
         <v>0.92</v>
       </c>
-      <c r="G23" s="74">
+      <c r="G23" s="60">
         <v>0.86</v>
       </c>
     </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="58">
+        <v>0.81</v>
+      </c>
+      <c r="E24" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="58">
+        <v>0.44</v>
+      </c>
+      <c r="G24" s="58">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="106"/>
+      <c r="C25" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="58">
+        <v>0.74</v>
+      </c>
+      <c r="E25" s="58">
+        <v>0.8</v>
+      </c>
+      <c r="F25" s="58">
+        <v>0.79</v>
+      </c>
+      <c r="G25" s="58">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="106"/>
+      <c r="C26" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="58">
+        <v>0.75</v>
+      </c>
+      <c r="E26" s="58">
+        <v>0.8</v>
+      </c>
+      <c r="F26" s="58">
+        <v>0.84</v>
+      </c>
+      <c r="G26" s="58">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="17" thickBot="1">
+      <c r="B27" s="107"/>
+      <c r="C27" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="60">
+        <v>0.74</v>
+      </c>
+      <c r="E27" s="60">
+        <v>0.81</v>
+      </c>
+      <c r="F27" s="60">
+        <v>0.73</v>
+      </c>
+      <c r="G27" s="60">
+        <v>0.7</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B24:B27"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B20:B23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2844,10 +3125,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88080FF-122E-2A4D-AEB0-1683C2720585}">
-  <dimension ref="B1:Q34"/>
+  <dimension ref="B1:S34"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2864,760 +3145,960 @@
     <col min="11" max="11" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="17" thickBot="1"/>
-    <row r="2" spans="2:17" ht="24" thickBot="1">
-      <c r="B2" s="75" t="s">
+    <row r="1" spans="2:19" ht="17" thickBot="1"/>
+    <row r="2" spans="2:19" ht="24" thickBot="1">
+      <c r="B2" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="95"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="126"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="2:17" ht="17" thickBot="1">
-      <c r="B3" s="93" t="s">
+    <row r="3" spans="2:19" ht="17" thickBot="1">
+      <c r="B3" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="94" t="s">
+      <c r="D3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="94" t="s">
+      <c r="E3" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="94" t="s">
+      <c r="F3" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="94" t="s">
+      <c r="G3" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="35" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
-      <c r="B4" s="79" t="s">
+    <row r="4" spans="2:19">
+      <c r="B4" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="41">
         <v>0.34</v>
       </c>
-      <c r="E4" s="55">
+      <c r="E4" s="41">
         <v>0.33</v>
       </c>
-      <c r="F4" s="55">
+      <c r="F4" s="41">
         <v>0.27</v>
       </c>
-      <c r="G4" s="55">
+      <c r="G4" s="41">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H4" s="100">
+      <c r="H4" s="67">
         <v>0.31</v>
       </c>
-      <c r="I4" s="100">
+      <c r="I4" s="67">
         <v>0.27</v>
       </c>
-      <c r="J4" s="100">
+      <c r="J4" s="67">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="5" spans="2:17">
-      <c r="B5" s="78"/>
-      <c r="C5" s="54" t="s">
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19">
+      <c r="B5" s="112"/>
+      <c r="C5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="41">
         <v>0.86</v>
       </c>
-      <c r="E5" s="117">
+      <c r="E5" s="84">
         <v>0.87</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="41">
         <v>0.89</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="41">
         <v>0.89</v>
       </c>
-      <c r="H5" s="100">
+      <c r="H5" s="67">
         <v>0.88</v>
       </c>
-      <c r="I5" s="100">
+      <c r="I5" s="67">
         <v>0.89</v>
       </c>
-      <c r="J5" s="100">
+      <c r="J5" s="67">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="6" spans="2:17">
-      <c r="B6" s="78"/>
-      <c r="C6" s="54" t="s">
+      <c r="L5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19">
+      <c r="B6" s="112"/>
+      <c r="C6" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="41">
         <v>0.86</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="41">
         <v>0.87</v>
       </c>
-      <c r="F6" s="55">
+      <c r="F6" s="41">
         <v>0.89</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="41">
         <v>0.94</v>
       </c>
-      <c r="H6" s="100">
+      <c r="H6" s="67">
         <v>0.92</v>
       </c>
-      <c r="I6" s="100">
+      <c r="I6" s="67">
         <v>0.92</v>
       </c>
-      <c r="J6" s="100">
+      <c r="J6" s="67">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="7" spans="2:17" ht="17" thickBot="1">
-      <c r="B7" s="78"/>
-      <c r="C7" s="54" t="s">
+      <c r="L6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="17" thickBot="1">
+      <c r="B7" s="112"/>
+      <c r="C7" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="41">
         <v>0.86</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="41">
         <v>0.87</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7" s="41">
         <v>0.88</v>
       </c>
-      <c r="G7" s="55">
+      <c r="G7" s="41">
         <v>0.84</v>
       </c>
-      <c r="H7" s="100">
+      <c r="H7" s="67">
         <v>0.83</v>
       </c>
-      <c r="I7" s="100">
+      <c r="I7" s="67">
         <v>0.85</v>
       </c>
-      <c r="J7" s="100">
+      <c r="J7" s="67">
         <v>0.86</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="2:17" ht="17" customHeight="1">
-      <c r="B8" s="119" t="s">
+      <c r="L7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="17" customHeight="1">
+      <c r="B8" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="121" t="s">
+      <c r="C8" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="124">
+      <c r="D8" s="88">
         <v>0.34</v>
       </c>
-      <c r="E8" s="125">
+      <c r="E8" s="89">
         <v>0.33</v>
       </c>
-      <c r="F8" s="125">
+      <c r="F8" s="89">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G8" s="125">
+      <c r="G8" s="89">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H8" s="125">
+      <c r="H8" s="89">
         <v>0.31</v>
       </c>
-      <c r="I8" s="125">
+      <c r="I8" s="89">
         <v>0.3</v>
       </c>
-      <c r="J8" s="125">
+      <c r="J8" s="89">
         <v>0.3</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="2:17">
-      <c r="B9" s="118"/>
-      <c r="C9" s="122" t="s">
+      <c r="L8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19">
+      <c r="B9" s="128"/>
+      <c r="C9" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="126">
+      <c r="D9" s="90">
         <v>0.86</v>
       </c>
-      <c r="E9" s="117">
+      <c r="E9" s="84">
         <v>0.88</v>
       </c>
-      <c r="F9" s="117">
+      <c r="F9" s="84">
         <v>0.88</v>
       </c>
-      <c r="G9" s="56">
+      <c r="G9" s="42">
         <v>0.9</v>
       </c>
-      <c r="H9" s="117">
+      <c r="H9" s="84">
         <v>0.89</v>
       </c>
-      <c r="I9" s="117">
+      <c r="I9" s="84">
         <v>0.89</v>
       </c>
-      <c r="J9" s="117">
+      <c r="J9" s="84">
         <v>0.88</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="2:17">
-      <c r="B10" s="118"/>
-      <c r="C10" s="122" t="s">
+    <row r="10" spans="2:19">
+      <c r="B10" s="128"/>
+      <c r="C10" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="126">
+      <c r="D10" s="90">
         <v>0.9</v>
       </c>
-      <c r="E10" s="117">
+      <c r="E10" s="84">
         <v>0.89</v>
       </c>
-      <c r="F10" s="117">
+      <c r="F10" s="84">
         <v>0.88</v>
       </c>
-      <c r="G10" s="117">
+      <c r="G10" s="84">
         <v>0.92</v>
       </c>
-      <c r="H10" s="117">
+      <c r="H10" s="84">
         <v>0.87</v>
       </c>
-      <c r="I10" s="117">
+      <c r="I10" s="84">
         <v>0.91</v>
       </c>
-      <c r="J10" s="117">
+      <c r="J10" s="84">
         <v>0.87</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="2:17" ht="17" thickBot="1">
-      <c r="B11" s="120"/>
-      <c r="C11" s="123" t="s">
+    <row r="11" spans="2:19" ht="17" thickBot="1">
+      <c r="B11" s="129"/>
+      <c r="C11" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="127">
+      <c r="D11" s="91">
         <v>0.82</v>
       </c>
-      <c r="E11" s="128">
+      <c r="E11" s="92">
         <v>0.87</v>
       </c>
-      <c r="F11" s="128">
+      <c r="F11" s="92">
         <v>0.89</v>
       </c>
-      <c r="G11" s="128">
+      <c r="G11" s="92">
         <v>0.89</v>
       </c>
-      <c r="H11" s="128">
+      <c r="H11" s="92">
         <v>0.91</v>
       </c>
-      <c r="I11" s="128">
+      <c r="I11" s="92">
         <v>0.87</v>
       </c>
-      <c r="J11" s="128">
+      <c r="J11" s="92">
         <v>0.89</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="2:17">
-      <c r="B12" s="81" t="s">
+    <row r="12" spans="2:19">
+      <c r="B12" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12" s="46">
         <v>0.42</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="46">
         <v>0.43</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="46">
         <v>0.37</v>
       </c>
-      <c r="G12" s="60">
+      <c r="G12" s="46">
         <v>0.38</v>
       </c>
-      <c r="H12" s="98">
+      <c r="H12" s="65">
         <v>0.42</v>
       </c>
-      <c r="I12" s="60">
+      <c r="I12" s="46">
         <v>0.42</v>
       </c>
-      <c r="J12" s="60">
+      <c r="J12" s="46">
         <v>0.37</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="2:17">
-      <c r="B13" s="81"/>
-      <c r="C13" s="59" t="s">
+    <row r="13" spans="2:19">
+      <c r="B13" s="115"/>
+      <c r="C13" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="60">
+      <c r="D13" s="46">
         <v>0.82</v>
       </c>
-      <c r="E13" s="60">
+      <c r="E13" s="46">
         <v>0.81</v>
       </c>
-      <c r="F13" s="60">
+      <c r="F13" s="46">
         <v>0.84</v>
       </c>
-      <c r="G13" s="60">
+      <c r="G13" s="46">
         <v>0.84</v>
       </c>
-      <c r="H13" s="98">
+      <c r="H13" s="65">
         <v>0.82</v>
       </c>
-      <c r="I13" s="60">
+      <c r="I13" s="46">
         <v>0.8</v>
       </c>
-      <c r="J13" s="60">
+      <c r="J13" s="46">
         <v>0.84</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="2:17">
-      <c r="B14" s="81"/>
-      <c r="C14" s="59" t="s">
+    <row r="14" spans="2:19">
+      <c r="B14" s="115"/>
+      <c r="C14" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="60">
+      <c r="D14" s="46">
         <v>0.87</v>
       </c>
-      <c r="E14" s="60">
+      <c r="E14" s="46">
         <v>0.87</v>
       </c>
-      <c r="F14" s="60">
+      <c r="F14" s="46">
         <v>0.83</v>
       </c>
-      <c r="G14" s="60">
+      <c r="G14" s="46">
         <v>0.86</v>
       </c>
-      <c r="H14" s="98">
+      <c r="H14" s="65">
         <v>0.8</v>
       </c>
-      <c r="I14" s="60">
+      <c r="I14" s="46">
         <v>0.94</v>
       </c>
-      <c r="J14" s="60">
+      <c r="J14" s="46">
         <v>0.86</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:17" ht="17" thickBot="1">
-      <c r="B15" s="83"/>
-      <c r="C15" s="61" t="s">
+    <row r="15" spans="2:19" ht="17" thickBot="1">
+      <c r="B15" s="116"/>
+      <c r="C15" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="62">
+      <c r="D15" s="48">
         <v>0.74</v>
       </c>
-      <c r="E15" s="62">
+      <c r="E15" s="48">
         <v>0.74</v>
       </c>
-      <c r="F15" s="62">
+      <c r="F15" s="48">
         <v>0.86</v>
       </c>
-      <c r="G15" s="62">
+      <c r="G15" s="48">
         <v>0.81</v>
       </c>
-      <c r="H15" s="99">
+      <c r="H15" s="66">
         <v>0.87</v>
       </c>
-      <c r="I15" s="62">
+      <c r="I15" s="48">
         <v>0.65</v>
       </c>
-      <c r="J15" s="62">
+      <c r="J15" s="48">
         <v>0.82</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:17">
-      <c r="B16" s="85" t="s">
+    <row r="16" spans="2:19">
+      <c r="B16" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="64">
+      <c r="D16" s="50">
         <v>0.42</v>
       </c>
-      <c r="E16" s="64">
+      <c r="E16" s="50">
         <v>0.47</v>
       </c>
-      <c r="F16" s="64">
+      <c r="F16" s="50">
         <v>0.34</v>
       </c>
-      <c r="G16" s="64">
+      <c r="G16" s="50">
         <v>0.36</v>
       </c>
-      <c r="H16" s="101">
+      <c r="H16" s="68">
         <v>0.37</v>
       </c>
-      <c r="I16" s="102">
+      <c r="I16" s="69">
         <v>0.36</v>
       </c>
-      <c r="J16" s="102">
+      <c r="J16" s="69">
         <v>0.36</v>
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="84"/>
-      <c r="C17" s="63" t="s">
+      <c r="B17" s="118"/>
+      <c r="C17" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="64">
+      <c r="D17" s="50">
         <v>0.83</v>
       </c>
-      <c r="E17" s="64">
+      <c r="E17" s="50">
         <v>0.8</v>
       </c>
-      <c r="F17" s="64">
+      <c r="F17" s="50">
         <v>0.85</v>
       </c>
-      <c r="G17" s="64">
+      <c r="G17" s="50">
         <v>0.85</v>
       </c>
-      <c r="H17" s="103">
+      <c r="H17" s="70">
         <v>0.83</v>
       </c>
-      <c r="I17" s="104">
+      <c r="I17" s="71">
         <v>0.84</v>
       </c>
-      <c r="J17" s="104">
+      <c r="J17" s="71">
         <v>0.84</v>
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="84"/>
-      <c r="C18" s="63" t="s">
+      <c r="B18" s="118"/>
+      <c r="C18" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="64">
+      <c r="D18" s="50">
         <v>0.78</v>
       </c>
-      <c r="E18" s="64">
+      <c r="E18" s="50">
         <v>0.85</v>
       </c>
-      <c r="F18" s="64">
+      <c r="F18" s="50">
         <v>0.85</v>
       </c>
-      <c r="G18" s="64">
+      <c r="G18" s="50">
         <v>0.83</v>
       </c>
-      <c r="H18" s="103">
+      <c r="H18" s="70">
         <v>0.89</v>
       </c>
-      <c r="I18" s="104">
+      <c r="I18" s="71">
         <v>0.8</v>
       </c>
-      <c r="J18" s="104">
+      <c r="J18" s="71">
         <v>0.84</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="17" thickBot="1">
-      <c r="B19" s="86"/>
-      <c r="C19" s="65" t="s">
+      <c r="B19" s="119"/>
+      <c r="C19" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="66">
+      <c r="D19" s="52">
         <v>0.91</v>
       </c>
-      <c r="E19" s="66">
+      <c r="E19" s="52">
         <v>0.74</v>
       </c>
-      <c r="F19" s="66">
+      <c r="F19" s="52">
         <v>0.86</v>
       </c>
-      <c r="G19" s="66">
+      <c r="G19" s="52">
         <v>0.87</v>
       </c>
-      <c r="H19" s="105">
+      <c r="H19" s="72">
         <v>0.76</v>
       </c>
-      <c r="I19" s="106">
+      <c r="I19" s="73">
         <v>0.91</v>
       </c>
-      <c r="J19" s="106">
+      <c r="J19" s="73">
         <v>0.84</v>
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="68">
+      <c r="D20" s="54">
         <v>0.38</v>
       </c>
-      <c r="E20" s="68">
+      <c r="E20" s="54">
         <v>0.44</v>
       </c>
-      <c r="F20" s="68">
+      <c r="F20" s="54">
         <v>0.38</v>
       </c>
-      <c r="G20" s="68">
+      <c r="G20" s="54">
         <v>0.36</v>
       </c>
-      <c r="H20" s="107">
+      <c r="H20" s="74">
         <v>0.34</v>
       </c>
-      <c r="I20" s="108">
+      <c r="I20" s="75">
         <v>0.34</v>
       </c>
-      <c r="J20" s="108">
+      <c r="J20" s="75">
         <v>0.33</v>
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="87"/>
-      <c r="C21" s="67" t="s">
+      <c r="B21" s="121"/>
+      <c r="C21" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="68">
+      <c r="D21" s="54">
         <v>0.85</v>
       </c>
-      <c r="E21" s="68">
+      <c r="E21" s="54">
         <v>0.81</v>
       </c>
-      <c r="F21" s="68">
+      <c r="F21" s="54">
         <v>0.83</v>
       </c>
-      <c r="G21" s="68">
+      <c r="G21" s="54">
         <v>0.85</v>
       </c>
-      <c r="H21" s="109">
+      <c r="H21" s="76">
         <v>0.87</v>
       </c>
-      <c r="I21" s="110">
+      <c r="I21" s="77">
         <v>0.85</v>
       </c>
-      <c r="J21" s="110">
+      <c r="J21" s="77">
         <v>0.85</v>
       </c>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="87"/>
-      <c r="C22" s="67" t="s">
+      <c r="B22" s="121"/>
+      <c r="C22" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="68">
+      <c r="D22" s="54">
         <v>0.9</v>
       </c>
-      <c r="E22" s="68">
+      <c r="E22" s="54">
         <v>0.89</v>
       </c>
-      <c r="F22" s="68">
+      <c r="F22" s="54">
         <v>0.78</v>
       </c>
-      <c r="G22" s="68">
+      <c r="G22" s="54">
         <v>0.81</v>
       </c>
-      <c r="H22" s="109">
+      <c r="H22" s="76">
         <v>0.86</v>
       </c>
-      <c r="I22" s="110">
+      <c r="I22" s="77">
         <v>0.91</v>
       </c>
-      <c r="J22" s="110">
+      <c r="J22" s="77">
         <v>0.82</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="17" thickBot="1">
-      <c r="B23" s="89"/>
-      <c r="C23" s="69" t="s">
+      <c r="B23" s="122"/>
+      <c r="C23" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="70">
+      <c r="D23" s="56">
         <v>0.78</v>
       </c>
-      <c r="E23" s="70">
+      <c r="E23" s="56">
         <v>0.72</v>
       </c>
-      <c r="F23" s="70">
+      <c r="F23" s="56">
         <v>0.93</v>
       </c>
-      <c r="G23" s="70">
+      <c r="G23" s="56">
         <v>0.91</v>
       </c>
-      <c r="H23" s="111">
+      <c r="H23" s="78">
         <v>0.87</v>
       </c>
-      <c r="I23" s="112">
+      <c r="I23" s="79">
         <v>0.78</v>
       </c>
-      <c r="J23" s="112">
+      <c r="J23" s="79">
         <v>0.89</v>
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="72">
+      <c r="D24" s="58">
         <v>0.59</v>
       </c>
-      <c r="E24" s="72">
+      <c r="E24" s="58">
         <v>0.59</v>
       </c>
-      <c r="F24" s="72">
+      <c r="F24" s="58">
         <v>0.54</v>
       </c>
-      <c r="G24" s="72">
+      <c r="G24" s="58">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H24" s="113">
+      <c r="H24" s="80">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I24" s="114">
+      <c r="I24" s="81">
         <v>0.54</v>
       </c>
-      <c r="J24" s="114">
+      <c r="J24" s="81">
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="90"/>
-      <c r="C25" s="71" t="s">
+      <c r="B25" s="124"/>
+      <c r="C25" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="72">
+      <c r="D25" s="58">
         <v>0.69</v>
       </c>
-      <c r="E25" s="72">
+      <c r="E25" s="58">
         <v>0.69</v>
       </c>
-      <c r="F25" s="72">
+      <c r="F25" s="58">
         <v>0.73</v>
       </c>
-      <c r="G25" s="72">
+      <c r="G25" s="58">
         <v>0.71</v>
       </c>
-      <c r="H25" s="115">
+      <c r="H25" s="82">
         <v>0.71</v>
       </c>
-      <c r="I25" s="72">
+      <c r="I25" s="58">
         <v>0.72</v>
       </c>
-      <c r="J25" s="72">
+      <c r="J25" s="58">
         <v>0.69</v>
       </c>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="90"/>
-      <c r="C26" s="71" t="s">
+      <c r="B26" s="124"/>
+      <c r="C26" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="72">
+      <c r="D26" s="58">
         <v>0.8</v>
       </c>
-      <c r="E26" s="72">
+      <c r="E26" s="58">
         <v>0.73</v>
       </c>
-      <c r="F26" s="72">
+      <c r="F26" s="58">
         <v>0.73</v>
       </c>
-      <c r="G26" s="72">
+      <c r="G26" s="58">
         <v>0.74</v>
       </c>
-      <c r="H26" s="115">
+      <c r="H26" s="82">
         <v>0.68</v>
       </c>
-      <c r="I26" s="72">
+      <c r="I26" s="58">
         <v>0.78</v>
       </c>
-      <c r="J26" s="72">
+      <c r="J26" s="58">
         <v>0.65</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="17" thickBot="1">
-      <c r="B27" s="92"/>
-      <c r="C27" s="73" t="s">
+      <c r="B27" s="125"/>
+      <c r="C27" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="74">
+      <c r="D27" s="60">
         <v>0.5</v>
       </c>
-      <c r="E27" s="74">
+      <c r="E27" s="60">
         <v>0.61</v>
       </c>
-      <c r="F27" s="74">
+      <c r="F27" s="60">
         <v>0.72</v>
       </c>
-      <c r="G27" s="74">
+      <c r="G27" s="60">
         <v>0.63</v>
       </c>
-      <c r="H27" s="116">
+      <c r="H27" s="83">
         <v>0.8</v>
       </c>
-      <c r="I27" s="74">
+      <c r="I27" s="60">
         <v>0.61</v>
       </c>
-      <c r="J27" s="74">
+      <c r="J27" s="60">
         <v>0.81</v>
       </c>
     </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="58">
+        <v>0.37</v>
+      </c>
+      <c r="E28" s="58">
+        <v>0.45</v>
+      </c>
+      <c r="F28" s="58">
+        <v>0.36</v>
+      </c>
+      <c r="G28" s="58">
+        <v>0.36</v>
+      </c>
+      <c r="H28" s="80">
+        <v>0.35</v>
+      </c>
+      <c r="I28" s="81">
+        <v>0.32</v>
+      </c>
+      <c r="J28" s="81">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="106"/>
+      <c r="C29" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="58">
+        <v>0.83</v>
+      </c>
+      <c r="E29" s="58">
+        <v>0.8</v>
+      </c>
+      <c r="F29" s="58">
+        <v>0.85</v>
+      </c>
+      <c r="G29" s="58">
+        <v>0.85</v>
+      </c>
+      <c r="H29" s="82">
+        <v>0.85</v>
+      </c>
+      <c r="I29" s="58">
+        <v>0.85</v>
+      </c>
+      <c r="J29" s="58">
+        <v>0.85</v>
+      </c>
+    </row>
     <row r="30" spans="2:10">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="C31" s="1"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="58">
+        <v>0.81</v>
+      </c>
+      <c r="E30" s="58">
+        <v>0.87</v>
+      </c>
+      <c r="F30" s="58">
+        <v>0.82</v>
+      </c>
+      <c r="G30" s="58">
+        <v>0.86</v>
+      </c>
+      <c r="H30" s="82">
+        <v>0.86</v>
+      </c>
+      <c r="I30" s="58">
+        <v>0.83</v>
+      </c>
+      <c r="J30" s="58">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="17" thickBot="1">
+      <c r="B31" s="107"/>
+      <c r="C31" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="60">
+        <v>0.88</v>
+      </c>
+      <c r="E31" s="60">
+        <v>0.72</v>
+      </c>
+      <c r="F31" s="60">
+        <v>0.89</v>
+      </c>
+      <c r="G31" s="60">
+        <v>0.83</v>
+      </c>
+      <c r="H31" s="83">
+        <v>0.82</v>
+      </c>
+      <c r="I31" s="60">
+        <v>0.88</v>
+      </c>
+      <c r="J31" s="60">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="32" spans="2:10">
       <c r="C32" s="1"/>
@@ -3650,14 +4131,15 @@
       <c r="J34" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B28:B31"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B8:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3668,13 +4150,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB1F63B-5678-5E43-809D-46E26AC7998F}">
   <dimension ref="B1:P30"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
     <col min="6" max="6" width="13.1640625" customWidth="1"/>
@@ -3684,59 +4166,59 @@
   <sheetData>
     <row r="1" spans="2:16" ht="17" thickBot="1"/>
     <row r="2" spans="2:16" ht="24" thickBot="1">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="95"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="126"/>
     </row>
     <row r="3" spans="2:16" ht="17" thickBot="1">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="94" t="s">
+      <c r="D3" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="94" t="s">
+      <c r="E3" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:16">
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="41">
         <v>0.42</v>
       </c>
-      <c r="E4" s="55">
+      <c r="E4" s="41">
         <v>0.37</v>
       </c>
-      <c r="F4" s="100">
+      <c r="F4" s="67">
         <v>0.34</v>
       </c>
-      <c r="G4" s="100">
+      <c r="G4" s="67">
         <v>0.36</v>
       </c>
-      <c r="H4" s="100">
+      <c r="H4" s="67">
         <v>0.35</v>
       </c>
       <c r="K4" s="1"/>
@@ -3747,23 +4229,23 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="78"/>
-      <c r="C5" s="54" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="117">
+      <c r="D5" s="84">
         <v>0.81</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="41">
         <v>0.84</v>
       </c>
-      <c r="F5" s="129">
+      <c r="F5" s="93">
         <v>0.85</v>
       </c>
-      <c r="G5" s="129">
+      <c r="G5" s="93">
         <v>0.85</v>
       </c>
-      <c r="H5" s="129">
+      <c r="H5" s="93">
         <v>0.85</v>
       </c>
       <c r="K5" s="1"/>
@@ -3774,23 +4256,23 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="78"/>
-      <c r="C6" s="54" t="s">
+      <c r="B6" s="112"/>
+      <c r="C6" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="41">
         <v>0.77</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="41">
         <v>0.87</v>
       </c>
-      <c r="F6" s="100">
+      <c r="F6" s="67">
         <v>0.84</v>
       </c>
-      <c r="G6" s="100">
+      <c r="G6" s="67">
         <v>0.85</v>
       </c>
-      <c r="H6" s="100">
+      <c r="H6" s="67">
         <v>0.84</v>
       </c>
       <c r="K6" s="1"/>
@@ -3801,55 +4283,57 @@
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="2:16" ht="17" thickBot="1">
-      <c r="B7" s="80"/>
-      <c r="C7" s="57" t="s">
+      <c r="B7" s="113"/>
+      <c r="C7" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="44">
         <v>0.89</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="44">
         <v>0.8</v>
       </c>
-      <c r="F7" s="100">
+      <c r="F7" s="67">
         <v>0.87</v>
       </c>
-      <c r="G7" s="100">
+      <c r="G7" s="67">
         <v>0.85</v>
       </c>
-      <c r="H7" s="100">
+      <c r="H7" s="67">
         <v>0.87</v>
       </c>
+      <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="2:16">
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="46">
         <v>0.53</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="46">
         <v>0.54</v>
       </c>
-      <c r="F8" s="96">
+      <c r="F8" s="63">
         <v>0.44</v>
       </c>
-      <c r="G8" s="97">
+      <c r="G8" s="64">
         <v>0.47</v>
       </c>
-      <c r="H8" s="97">
+      <c r="H8" s="64">
         <v>0.45</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -3857,26 +4341,27 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="2:16">
-      <c r="B9" s="81"/>
-      <c r="C9" s="59" t="s">
+      <c r="B9" s="115"/>
+      <c r="C9" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="46">
         <v>0.73</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="46">
         <v>0.73</v>
       </c>
-      <c r="F9" s="98">
+      <c r="F9" s="65">
         <v>0.79</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G9" s="46">
         <v>0.78</v>
       </c>
-      <c r="H9" s="60">
+      <c r="H9" s="46">
         <v>0.79</v>
       </c>
-      <c r="K9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -3884,26 +4369,27 @@
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="2:16">
-      <c r="B10" s="81"/>
-      <c r="C10" s="59" t="s">
+      <c r="B10" s="115"/>
+      <c r="C10" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="46">
         <v>0.75</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="46">
         <v>0.75</v>
       </c>
-      <c r="F10" s="98">
+      <c r="F10" s="65">
         <v>0.84</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G10" s="46">
         <v>0.82</v>
       </c>
-      <c r="H10" s="60">
+      <c r="H10" s="46">
         <v>0.87</v>
       </c>
-      <c r="K10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3911,26 +4397,27 @@
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="2:16" ht="17" thickBot="1">
-      <c r="B11" s="83"/>
-      <c r="C11" s="61" t="s">
+      <c r="B11" s="116"/>
+      <c r="C11" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="48">
         <v>0.7</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="48">
         <v>0.67</v>
       </c>
-      <c r="F11" s="99">
+      <c r="F11" s="66">
         <v>0.73</v>
       </c>
-      <c r="G11" s="62">
+      <c r="G11" s="48">
         <v>0.73</v>
       </c>
-      <c r="H11" s="62">
+      <c r="H11" s="48">
         <v>0.68</v>
       </c>
-      <c r="K11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3938,25 +4425,25 @@
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="2:16">
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="50">
         <v>0.61</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="50">
         <v>0.51</v>
       </c>
-      <c r="F12" s="101">
+      <c r="F12" s="68">
         <v>0.44</v>
       </c>
-      <c r="G12" s="102">
+      <c r="G12" s="69">
         <v>0.54</v>
       </c>
-      <c r="H12" s="102">
+      <c r="H12" s="69">
         <v>0.47</v>
       </c>
       <c r="K12" s="1"/>
@@ -3967,23 +4454,23 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="2:16">
-      <c r="B13" s="84"/>
-      <c r="C13" s="63" t="s">
+      <c r="B13" s="118"/>
+      <c r="C13" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="64">
+      <c r="D13" s="50">
         <v>0.68</v>
       </c>
-      <c r="E13" s="64">
+      <c r="E13" s="50">
         <v>0.76</v>
       </c>
-      <c r="F13" s="103">
+      <c r="F13" s="70">
         <v>0.82</v>
       </c>
-      <c r="G13" s="104">
+      <c r="G13" s="71">
         <v>0.73</v>
       </c>
-      <c r="H13" s="104">
+      <c r="H13" s="71">
         <v>0.78</v>
       </c>
       <c r="K13" s="1"/>
@@ -3994,23 +4481,23 @@
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="2:16">
-      <c r="B14" s="84"/>
-      <c r="C14" s="63" t="s">
+      <c r="B14" s="118"/>
+      <c r="C14" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="64">
+      <c r="D14" s="50">
         <v>0.72</v>
       </c>
-      <c r="E14" s="64">
+      <c r="E14" s="50">
         <v>0.78</v>
       </c>
-      <c r="F14" s="103">
+      <c r="F14" s="70">
         <v>0.85</v>
       </c>
-      <c r="G14" s="104">
+      <c r="G14" s="71">
         <v>0.88</v>
       </c>
-      <c r="H14" s="104">
+      <c r="H14" s="71">
         <v>0.79</v>
       </c>
       <c r="K14" s="1"/>
@@ -4021,23 +4508,23 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="2:16" ht="17" thickBot="1">
-      <c r="B15" s="86"/>
-      <c r="C15" s="65" t="s">
+      <c r="B15" s="119"/>
+      <c r="C15" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="66">
+      <c r="D15" s="52">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E15" s="66">
+      <c r="E15" s="52">
         <v>0.73</v>
       </c>
-      <c r="F15" s="105">
+      <c r="F15" s="72">
         <v>0.78</v>
       </c>
-      <c r="G15" s="106">
+      <c r="G15" s="73">
         <v>0.53</v>
       </c>
-      <c r="H15" s="106">
+      <c r="H15" s="73">
         <v>0.77</v>
       </c>
       <c r="K15" s="1"/>
@@ -4048,25 +4535,25 @@
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="68">
+      <c r="D16" s="54">
         <v>0.45</v>
       </c>
-      <c r="E16" s="68">
+      <c r="E16" s="54">
         <v>0.49</v>
       </c>
-      <c r="F16" s="107">
+      <c r="F16" s="74">
         <v>0.42</v>
       </c>
-      <c r="G16" s="108">
+      <c r="G16" s="75">
         <v>0.48</v>
       </c>
-      <c r="H16" s="108">
+      <c r="H16" s="75">
         <v>0.44</v>
       </c>
       <c r="K16" s="1"/>
@@ -4077,23 +4564,23 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="87"/>
-      <c r="C17" s="67" t="s">
+      <c r="B17" s="121"/>
+      <c r="C17" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="68">
+      <c r="D17" s="54">
         <v>0.8</v>
       </c>
-      <c r="E17" s="68">
+      <c r="E17" s="54">
         <v>0.76</v>
       </c>
-      <c r="F17" s="109">
+      <c r="F17" s="76">
         <v>0.82</v>
       </c>
-      <c r="G17" s="110">
+      <c r="G17" s="77">
         <v>0.77</v>
       </c>
-      <c r="H17" s="110">
+      <c r="H17" s="77">
         <v>0.8</v>
       </c>
       <c r="K17" s="1"/>
@@ -4104,23 +4591,23 @@
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="2:16">
-      <c r="B18" s="87"/>
-      <c r="C18" s="67" t="s">
+      <c r="B18" s="121"/>
+      <c r="C18" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="68">
+      <c r="D18" s="54">
         <v>0.86</v>
       </c>
-      <c r="E18" s="68">
+      <c r="E18" s="54">
         <v>0.76</v>
       </c>
-      <c r="F18" s="109">
+      <c r="F18" s="76">
         <v>0.83</v>
       </c>
-      <c r="G18" s="110">
+      <c r="G18" s="77">
         <v>0.86</v>
       </c>
-      <c r="H18" s="110">
+      <c r="H18" s="77">
         <v>0.84</v>
       </c>
       <c r="K18" s="1"/>
@@ -4131,23 +4618,23 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="2:16" ht="17" thickBot="1">
-      <c r="B19" s="89"/>
-      <c r="C19" s="69" t="s">
+      <c r="B19" s="122"/>
+      <c r="C19" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="70">
+      <c r="D19" s="56">
         <v>0.72</v>
       </c>
-      <c r="E19" s="70">
+      <c r="E19" s="56">
         <v>0.76</v>
       </c>
-      <c r="F19" s="111">
+      <c r="F19" s="78">
         <v>0.8</v>
       </c>
-      <c r="G19" s="112">
+      <c r="G19" s="79">
         <v>0.65</v>
       </c>
-      <c r="H19" s="112">
+      <c r="H19" s="79">
         <v>0.75</v>
       </c>
       <c r="K19" s="1"/>
@@ -4158,25 +4645,25 @@
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="2:16">
-      <c r="B20" s="91" t="s">
+      <c r="B20" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="72">
+      <c r="D20" s="58">
         <v>0.69</v>
       </c>
-      <c r="E20" s="72">
+      <c r="E20" s="58">
         <v>0.69</v>
       </c>
-      <c r="F20" s="113">
+      <c r="F20" s="80">
         <v>0.69</v>
       </c>
-      <c r="G20" s="114">
+      <c r="G20" s="81">
         <v>0.68</v>
       </c>
-      <c r="H20" s="114">
+      <c r="H20" s="81">
         <v>0.69</v>
       </c>
       <c r="K20" s="1"/>
@@ -4187,23 +4674,23 @@
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="90"/>
-      <c r="C21" s="71" t="s">
+      <c r="B21" s="124"/>
+      <c r="C21" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="72">
+      <c r="D21" s="58">
         <v>0.49</v>
       </c>
-      <c r="E21" s="72">
+      <c r="E21" s="58">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F21" s="115">
+      <c r="F21" s="82">
         <v>0.54</v>
       </c>
-      <c r="G21" s="72">
+      <c r="G21" s="58">
         <v>0.61</v>
       </c>
-      <c r="H21" s="72">
+      <c r="H21" s="58">
         <v>0.5</v>
       </c>
       <c r="K21" s="1"/>
@@ -4214,23 +4701,23 @@
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="90"/>
-      <c r="C22" s="71" t="s">
+      <c r="B22" s="124"/>
+      <c r="C22" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="72">
+      <c r="D22" s="58">
         <v>0.5</v>
       </c>
-      <c r="E22" s="72">
+      <c r="E22" s="58">
         <v>0.54</v>
       </c>
-      <c r="F22" s="115">
+      <c r="F22" s="82">
         <v>0.52</v>
       </c>
-      <c r="G22" s="72">
+      <c r="G22" s="58">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H22" s="72">
+      <c r="H22" s="58">
         <v>0</v>
       </c>
       <c r="K22" s="1"/>
@@ -4241,39 +4728,111 @@
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="2:16" ht="17" thickBot="1">
-      <c r="B23" s="92"/>
-      <c r="C23" s="73" t="s">
+      <c r="B23" s="125"/>
+      <c r="C23" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="74">
+      <c r="D23" s="60">
         <v>0.94</v>
       </c>
-      <c r="E23" s="74">
+      <c r="E23" s="60">
         <v>0.91</v>
       </c>
-      <c r="F23" s="116">
+      <c r="F23" s="83">
         <v>0.88</v>
       </c>
-      <c r="G23" s="74">
+      <c r="G23" s="60">
         <v>0.81</v>
       </c>
-      <c r="H23" s="74">
+      <c r="H23" s="60">
         <v>0</v>
       </c>
     </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="58">
+        <v>0.43</v>
+      </c>
+      <c r="E24" s="58">
+        <v>0.47</v>
+      </c>
+      <c r="F24" s="80">
+        <v>0.42</v>
+      </c>
+      <c r="G24" s="81">
+        <v>0.47</v>
+      </c>
+      <c r="H24" s="81">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="106"/>
+      <c r="C25" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="58">
+        <v>0.82</v>
+      </c>
+      <c r="E25" s="58">
+        <v>0.78</v>
+      </c>
+      <c r="F25" s="82">
+        <v>0.82</v>
+      </c>
+      <c r="G25" s="58">
+        <v>0.78</v>
+      </c>
+      <c r="H25" s="58">
+        <v>0.82</v>
+      </c>
+    </row>
     <row r="26" spans="2:16">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="2:16">
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="58">
+        <v>0.8</v>
+      </c>
+      <c r="E26" s="58">
+        <v>0.84</v>
+      </c>
+      <c r="F26" s="82">
+        <v>0.83</v>
+      </c>
+      <c r="G26" s="58">
+        <v>0.86</v>
+      </c>
+      <c r="H26" s="58">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="17" thickBot="1">
+      <c r="B27" s="107"/>
+      <c r="C27" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="60">
+        <v>0.84</v>
+      </c>
+      <c r="E27" s="60">
+        <v>0.7</v>
+      </c>
+      <c r="F27" s="83">
+        <v>0.8</v>
+      </c>
+      <c r="G27" s="60">
+        <v>0.67</v>
+      </c>
+      <c r="H27" s="60">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="28" spans="2:16">
       <c r="B28" s="1"/>
@@ -4297,13 +4856,14 @@
       <c r="F30" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B24:B27"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B20:B23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Summary/summary_binary.xlsx
+++ b/Summary/summary_binary.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray/Desktop/26/Summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42375D05-4730-6B4B-A23B-869781E3B5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1892725-C147-9E43-94CF-408C37E94CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" activeTab="4" xr2:uid="{A597E320-F4E8-FE4E-B4D6-DC9DFDF39562}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19700" xr2:uid="{A597E320-F4E8-FE4E-B4D6-DC9DFDF39562}"/>
   </bookViews>
   <sheets>
-    <sheet name="VGG" sheetId="1" r:id="rId1"/>
-    <sheet name="Residual" sheetId="2" r:id="rId2"/>
-    <sheet name="Inception" sheetId="3" r:id="rId3"/>
-    <sheet name="Standalone TL" sheetId="4" r:id="rId4"/>
-    <sheet name="Embedded TL" sheetId="5" r:id="rId5"/>
+    <sheet name="Summary" sheetId="6" r:id="rId1"/>
+    <sheet name="VGG" sheetId="1" r:id="rId2"/>
+    <sheet name="Residual" sheetId="2" r:id="rId3"/>
+    <sheet name="Inception" sheetId="3" r:id="rId4"/>
+    <sheet name="Standalone TL" sheetId="4" r:id="rId5"/>
+    <sheet name="Embedded TL" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="52">
   <si>
     <t>Loss</t>
   </si>
@@ -207,39 +208,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TPR</t>
-  </si>
-  <si>
     <t>AdpGauThresh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bi_AGT_TL1_VGG19</t>
+    <t>Summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bi_AGT_TL1_ResNet152V2</t>
+    <t>CNN-VGG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bi_AGT_TL1_NASNetLarge</t>
+    <t>CNN-Inception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bi_AGT_TL1_DenseNet201</t>
+    <t>CNN-Residual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bi_AGT_TL1_InceptionV3</t>
+    <t>CNN-Standalone-TF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bi_AGT_TL1_InceptionResNetV2</t>
-  </si>
-  <si>
-    <t>Bi_AGT_TL1_Xception</t>
+    <t>CNN-Embedded-TF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -321,6 +322,15 @@
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -602,7 +612,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -885,6 +895,135 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -921,10 +1060,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -972,15 +1114,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -992,12 +1125,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1318,11 +1445,643 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8FFCBE-454C-6F44-83F3-6BC2C67E86E2}">
+  <dimension ref="B1:L27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" customWidth="1"/>
+    <col min="12" max="12" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="17" thickBot="1"/>
+    <row r="2" spans="2:12" ht="24" thickBot="1">
+      <c r="B2" s="137" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="139"/>
+      <c r="J2" s="132" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="133"/>
+      <c r="L2" s="134"/>
+    </row>
+    <row r="3" spans="2:12" ht="17" thickBot="1">
+      <c r="B3" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="125" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="140" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="22">
+        <v>0.37</v>
+      </c>
+      <c r="E4" s="84">
+        <v>0.39</v>
+      </c>
+      <c r="F4" s="84">
+        <v>0.45</v>
+      </c>
+      <c r="G4" s="96">
+        <v>0.27</v>
+      </c>
+      <c r="H4" s="97">
+        <v>0.34</v>
+      </c>
+      <c r="J4" s="129" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="89">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="140"/>
+      <c r="C5" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="22">
+        <v>0.85</v>
+      </c>
+      <c r="E5" s="84">
+        <v>0.84</v>
+      </c>
+      <c r="F5" s="84">
+        <v>0.84</v>
+      </c>
+      <c r="G5" s="98">
+        <v>0.89</v>
+      </c>
+      <c r="H5" s="97">
+        <v>0.85</v>
+      </c>
+      <c r="J5" s="130"/>
+      <c r="K5" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="84">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="140"/>
+      <c r="C6" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0.83</v>
+      </c>
+      <c r="E6" s="84">
+        <v>0.88</v>
+      </c>
+      <c r="F6" s="84">
+        <v>0.83</v>
+      </c>
+      <c r="G6" s="98">
+        <v>0.92</v>
+      </c>
+      <c r="H6" s="97">
+        <v>0.84</v>
+      </c>
+      <c r="J6" s="130"/>
+      <c r="K6" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="84">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="17" customHeight="1" thickBot="1">
+      <c r="B7" s="141"/>
+      <c r="C7" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="23">
+        <v>0.89</v>
+      </c>
+      <c r="E7" s="92">
+        <v>0.78</v>
+      </c>
+      <c r="F7" s="92">
+        <v>0.86</v>
+      </c>
+      <c r="G7" s="99">
+        <v>0.85</v>
+      </c>
+      <c r="H7" s="97">
+        <v>0.87</v>
+      </c>
+      <c r="J7" s="131"/>
+      <c r="K7" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="92">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="142" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="24">
+        <v>0.37</v>
+      </c>
+      <c r="E8" s="100">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F8" s="100">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G8" s="100">
+        <v>0.37</v>
+      </c>
+      <c r="H8" s="101">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="143"/>
+      <c r="C9" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0.85</v>
+      </c>
+      <c r="E9" s="100">
+        <v>0.76</v>
+      </c>
+      <c r="F9" s="100">
+        <v>0.77</v>
+      </c>
+      <c r="G9" s="100">
+        <v>0.84</v>
+      </c>
+      <c r="H9" s="102">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="143"/>
+      <c r="C10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="24">
+        <v>0.83</v>
+      </c>
+      <c r="E10" s="100">
+        <v>0.72</v>
+      </c>
+      <c r="F10" s="100">
+        <v>0.73</v>
+      </c>
+      <c r="G10" s="100">
+        <v>0.83</v>
+      </c>
+      <c r="H10" s="102">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="17" thickBot="1">
+      <c r="B11" s="144"/>
+      <c r="C11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.89</v>
+      </c>
+      <c r="E11" s="103">
+        <v>0.85</v>
+      </c>
+      <c r="F11" s="103">
+        <v>0.84</v>
+      </c>
+      <c r="G11" s="103">
+        <v>0.86</v>
+      </c>
+      <c r="H11" s="104">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="26">
+        <v>0.48</v>
+      </c>
+      <c r="E12" s="105">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F12" s="105">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G12" s="105">
+        <v>0.34</v>
+      </c>
+      <c r="H12" s="106">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="145"/>
+      <c r="C13" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="26">
+        <v>0.77</v>
+      </c>
+      <c r="E13" s="105">
+        <v>0.73</v>
+      </c>
+      <c r="F13" s="105">
+        <v>0.73</v>
+      </c>
+      <c r="G13" s="105">
+        <v>0.85</v>
+      </c>
+      <c r="H13" s="107">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="145"/>
+      <c r="C14" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="26">
+        <v>0.77</v>
+      </c>
+      <c r="E14" s="105">
+        <v>0.7</v>
+      </c>
+      <c r="F14" s="105">
+        <v>0.7</v>
+      </c>
+      <c r="G14" s="105">
+        <v>0.85</v>
+      </c>
+      <c r="H14" s="107">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="17" thickBot="1">
+      <c r="B15" s="146"/>
+      <c r="C15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="27">
+        <v>0.79</v>
+      </c>
+      <c r="E15" s="108">
+        <v>0.83</v>
+      </c>
+      <c r="F15" s="108">
+        <v>0.83</v>
+      </c>
+      <c r="G15" s="108">
+        <v>0.86</v>
+      </c>
+      <c r="H15" s="109">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="147" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="110">
+        <v>1.2</v>
+      </c>
+      <c r="F16" s="110">
+        <v>0.49</v>
+      </c>
+      <c r="G16" s="111">
+        <v>0.33</v>
+      </c>
+      <c r="H16" s="112">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="147"/>
+      <c r="C17" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="E17" s="110">
+        <v>0.79</v>
+      </c>
+      <c r="F17" s="110">
+        <v>0.78</v>
+      </c>
+      <c r="G17" s="113">
+        <v>0.85</v>
+      </c>
+      <c r="H17" s="114">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="147"/>
+      <c r="C18" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="28">
+        <v>0.79</v>
+      </c>
+      <c r="E18" s="110">
+        <v>0.81</v>
+      </c>
+      <c r="F18" s="110">
+        <v>0.83</v>
+      </c>
+      <c r="G18" s="113">
+        <v>0.82</v>
+      </c>
+      <c r="H18" s="114">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="17" thickBot="1">
+      <c r="B19" s="148"/>
+      <c r="C19" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="29">
+        <v>0.81</v>
+      </c>
+      <c r="E19" s="115">
+        <v>0.75</v>
+      </c>
+      <c r="F19" s="115">
+        <v>0.71</v>
+      </c>
+      <c r="G19" s="116">
+        <v>0.89</v>
+      </c>
+      <c r="H19" s="117">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="135" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="30">
+        <v>0.69</v>
+      </c>
+      <c r="E20" s="118">
+        <v>1.37</v>
+      </c>
+      <c r="F20" s="118">
+        <v>0.69</v>
+      </c>
+      <c r="G20" s="118">
+        <v>0.54</v>
+      </c>
+      <c r="H20" s="119">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="135"/>
+      <c r="C21" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="30">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E21" s="118">
+        <v>0.61</v>
+      </c>
+      <c r="F21" s="118">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="118">
+        <v>0.73</v>
+      </c>
+      <c r="H21" s="118">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="135"/>
+      <c r="C22" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="30">
+        <v>0.63</v>
+      </c>
+      <c r="E22" s="118">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F22" s="118">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="118">
+        <v>0.73</v>
+      </c>
+      <c r="H22" s="118">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="17" thickBot="1">
+      <c r="B23" s="136"/>
+      <c r="C23" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="31">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E23" s="120">
+        <v>0.86</v>
+      </c>
+      <c r="F23" s="120">
+        <v>1</v>
+      </c>
+      <c r="G23" s="120">
+        <v>0.72</v>
+      </c>
+      <c r="H23" s="120">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="135" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="12">
+        <v>1.06</v>
+      </c>
+      <c r="E24" s="118">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="118">
+        <v>0.49</v>
+      </c>
+      <c r="G24" s="119">
+        <v>0.32</v>
+      </c>
+      <c r="H24" s="121">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="135"/>
+      <c r="C25" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0.83</v>
+      </c>
+      <c r="E25" s="118">
+        <v>0.8</v>
+      </c>
+      <c r="F25" s="118">
+        <v>0.8</v>
+      </c>
+      <c r="G25" s="118">
+        <v>0.85</v>
+      </c>
+      <c r="H25" s="122">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="135"/>
+      <c r="C26" s="94" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0.82</v>
+      </c>
+      <c r="E26" s="118">
+        <v>0.8</v>
+      </c>
+      <c r="F26" s="118">
+        <v>0.8</v>
+      </c>
+      <c r="G26" s="118">
+        <v>0.83</v>
+      </c>
+      <c r="H26" s="122">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="17" thickBot="1">
+      <c r="B27" s="136"/>
+      <c r="C27" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="E27" s="120">
+        <v>0.81</v>
+      </c>
+      <c r="F27" s="120">
+        <v>0.81</v>
+      </c>
+      <c r="G27" s="120">
+        <v>0.88</v>
+      </c>
+      <c r="H27" s="123">
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B20:B23"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E29D67-F4BD-0F48-82AE-6106882544F2}">
   <dimension ref="B1:S27"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:B27"/>
+      <selection activeCell="B2" sqref="B2:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1341,15 +2100,15 @@
   <sheetData>
     <row r="1" spans="2:19" ht="17" thickBot="1"/>
     <row r="2" spans="2:19" ht="25" customHeight="1" thickBot="1">
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="96"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="139"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
@@ -1379,7 +2138,7 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="2:19">
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="140" t="s">
         <v>39</v>
       </c>
       <c r="C4" s="33" t="s">
@@ -1408,7 +2167,7 @@
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="97"/>
+      <c r="B5" s="140"/>
       <c r="C5" s="33" t="s">
         <v>1</v>
       </c>
@@ -1435,7 +2194,7 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="97"/>
+      <c r="B6" s="140"/>
       <c r="C6" s="33" t="s">
         <v>2</v>
       </c>
@@ -1462,7 +2221,7 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="2:19" ht="17" thickBot="1">
-      <c r="B7" s="98"/>
+      <c r="B7" s="141"/>
       <c r="C7" s="34" t="s">
         <v>4</v>
       </c>
@@ -1489,7 +2248,7 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="142" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -1520,7 +2279,7 @@
       <c r="S8" s="2"/>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="100"/>
+      <c r="B9" s="143"/>
       <c r="C9" s="14" t="s">
         <v>1</v>
       </c>
@@ -1549,7 +2308,7 @@
       <c r="S9" s="2"/>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="100"/>
+      <c r="B10" s="143"/>
       <c r="C10" s="14" t="s">
         <v>2</v>
       </c>
@@ -1576,7 +2335,7 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="2:19" ht="17" thickBot="1">
-      <c r="B11" s="101"/>
+      <c r="B11" s="144"/>
       <c r="C11" s="15" t="s">
         <v>4</v>
       </c>
@@ -1603,7 +2362,7 @@
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="145" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="16" t="s">
@@ -1634,7 +2393,7 @@
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="102"/>
+      <c r="B13" s="145"/>
       <c r="C13" s="16" t="s">
         <v>1</v>
       </c>
@@ -1663,7 +2422,7 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="102"/>
+      <c r="B14" s="145"/>
       <c r="C14" s="16" t="s">
         <v>2</v>
       </c>
@@ -1692,7 +2451,7 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="2:19" ht="17" thickBot="1">
-      <c r="B15" s="103"/>
+      <c r="B15" s="146"/>
       <c r="C15" s="17" t="s">
         <v>4</v>
       </c>
@@ -1721,7 +2480,7 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="147" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="18" t="s">
@@ -1750,7 +2509,7 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="2:19">
-      <c r="B17" s="104"/>
+      <c r="B17" s="147"/>
       <c r="C17" s="18" t="s">
         <v>1</v>
       </c>
@@ -1779,7 +2538,7 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="2:19">
-      <c r="B18" s="104"/>
+      <c r="B18" s="147"/>
       <c r="C18" s="18" t="s">
         <v>2</v>
       </c>
@@ -1810,7 +2569,7 @@
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="2:19" ht="17" thickBot="1">
-      <c r="B19" s="105"/>
+      <c r="B19" s="148"/>
       <c r="C19" s="19" t="s">
         <v>4</v>
       </c>
@@ -1841,7 +2600,7 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="106" t="s">
+      <c r="B20" s="135" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="20" t="s">
@@ -1874,7 +2633,7 @@
       <c r="S20" s="2"/>
     </row>
     <row r="21" spans="2:19">
-      <c r="B21" s="106"/>
+      <c r="B21" s="135"/>
       <c r="C21" s="20" t="s">
         <v>1</v>
       </c>
@@ -1905,7 +2664,7 @@
       <c r="S21" s="2"/>
     </row>
     <row r="22" spans="2:19">
-      <c r="B22" s="106"/>
+      <c r="B22" s="135"/>
       <c r="C22" s="20" t="s">
         <v>2</v>
       </c>
@@ -1926,7 +2685,7 @@
       </c>
     </row>
     <row r="23" spans="2:19" ht="17" thickBot="1">
-      <c r="B23" s="107"/>
+      <c r="B23" s="136"/>
       <c r="C23" s="21" t="s">
         <v>4</v>
       </c>
@@ -1947,10 +2706,10 @@
       </c>
     </row>
     <row r="24" spans="2:19">
-      <c r="B24" s="106" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="130" t="s">
+      <c r="B24" s="135" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="94" t="s">
         <v>0</v>
       </c>
       <c r="D24" s="30">
@@ -1970,8 +2729,8 @@
       </c>
     </row>
     <row r="25" spans="2:19">
-      <c r="B25" s="106"/>
-      <c r="C25" s="130" t="s">
+      <c r="B25" s="135"/>
+      <c r="C25" s="94" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="30">
@@ -1991,8 +2750,8 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="106"/>
-      <c r="C26" s="130" t="s">
+      <c r="B26" s="135"/>
+      <c r="C26" s="94" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="30">
@@ -2012,8 +2771,8 @@
       </c>
     </row>
     <row r="27" spans="2:19" ht="17" thickBot="1">
-      <c r="B27" s="107"/>
-      <c r="C27" s="131" t="s">
+      <c r="B27" s="136"/>
+      <c r="C27" s="95" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="31">
@@ -2047,12 +2806,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F077D75E-3BED-AE4E-AC03-A6A12C77AAC6}">
-  <dimension ref="B1:N27"/>
+  <dimension ref="B1:L27"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:B27"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2066,18 +2825,18 @@
     <col min="13" max="13" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="17" thickBot="1"/>
-    <row r="2" spans="2:14" ht="24" thickBot="1">
-      <c r="B2" s="108" t="s">
+    <row r="1" spans="2:12" ht="17" thickBot="1"/>
+    <row r="2" spans="2:12" ht="24" thickBot="1">
+      <c r="B2" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="110"/>
-    </row>
-    <row r="3" spans="2:14" ht="17" thickBot="1">
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="154"/>
+    </row>
+    <row r="3" spans="2:12" ht="17" thickBot="1">
       <c r="B3" s="38" t="s">
         <v>34</v>
       </c>
@@ -2097,8 +2856,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
-      <c r="B4" s="111" t="s">
+    <row r="4" spans="2:12">
+      <c r="B4" s="155" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="40" t="s">
@@ -2117,8 +2876,8 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
-      <c r="B5" s="112"/>
+    <row r="5" spans="2:12">
+      <c r="B5" s="156"/>
       <c r="C5" s="40" t="s">
         <v>1</v>
       </c>
@@ -2135,8 +2894,8 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
-      <c r="B6" s="112"/>
+    <row r="6" spans="2:12">
+      <c r="B6" s="156"/>
       <c r="C6" s="40" t="s">
         <v>2</v>
       </c>
@@ -2153,8 +2912,8 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="17" thickBot="1">
-      <c r="B7" s="113"/>
+    <row r="7" spans="2:12" ht="17" thickBot="1">
+      <c r="B7" s="157"/>
       <c r="C7" s="43" t="s">
         <v>3</v>
       </c>
@@ -2171,8 +2930,8 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="114" t="s">
+    <row r="8" spans="2:12">
+      <c r="B8" s="158" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="45" t="s">
@@ -2190,14 +2949,13 @@
       <c r="G8" s="46">
         <v>2.23</v>
       </c>
+      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="115"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="159"/>
       <c r="C9" s="45" t="s">
         <v>1</v>
       </c>
@@ -2213,602 +2971,57 @@
       <c r="G9" s="46">
         <v>0.65</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="115"/>
-      <c r="C10" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="46">
-        <v>0.72</v>
-      </c>
-      <c r="E10" s="46">
-        <v>0.73</v>
-      </c>
-      <c r="F10" s="46">
-        <v>0.81</v>
-      </c>
-      <c r="G10" s="46">
-        <v>0.79</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="2:14" ht="17" thickBot="1">
-      <c r="B11" s="116"/>
-      <c r="C11" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="48">
-        <v>0.7</v>
-      </c>
-      <c r="E11" s="48">
-        <v>0.84</v>
-      </c>
-      <c r="F11" s="48">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G11" s="48">
-        <v>0.4</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="50">
-        <v>0.72</v>
-      </c>
-      <c r="E12" s="50">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="F12" s="50">
-        <v>0.59</v>
-      </c>
-      <c r="G12" s="50">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="118"/>
-      <c r="C13" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="50">
-        <v>0.66</v>
-      </c>
-      <c r="E13" s="50">
-        <v>0.73</v>
-      </c>
-      <c r="F13" s="50">
-        <v>0.69</v>
-      </c>
-      <c r="G13" s="50">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="118"/>
-      <c r="C14" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="50">
-        <v>0.65</v>
-      </c>
-      <c r="E14" s="50">
-        <v>0.7</v>
-      </c>
-      <c r="F14" s="50">
-        <v>0.66</v>
-      </c>
-      <c r="G14" s="50">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="17" thickBot="1">
-      <c r="B15" s="119"/>
-      <c r="C15" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="52">
-        <v>0.69</v>
-      </c>
-      <c r="E15" s="52">
-        <v>0.83</v>
-      </c>
-      <c r="F15" s="52">
-        <v>0.81</v>
-      </c>
-      <c r="G15" s="52">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="120" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="54">
-        <v>0.89</v>
-      </c>
-      <c r="E16" s="54">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F16" s="54">
-        <v>0.49</v>
-      </c>
-      <c r="G16" s="54">
-        <v>2.1800000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="121"/>
-      <c r="C17" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="54">
-        <v>0.71</v>
-      </c>
-      <c r="E17" s="54">
-        <v>0.78</v>
-      </c>
-      <c r="F17" s="54">
-        <v>0.78</v>
-      </c>
-      <c r="G17" s="54">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="121"/>
-      <c r="C18" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="54">
-        <v>0.71</v>
-      </c>
-      <c r="E18" s="54">
-        <v>0.81</v>
-      </c>
-      <c r="F18" s="54">
-        <v>0.83</v>
-      </c>
-      <c r="G18" s="54">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="17" thickBot="1">
-      <c r="B19" s="122"/>
-      <c r="C19" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="56">
-        <v>0.72</v>
-      </c>
-      <c r="E19" s="56">
-        <v>0.74</v>
-      </c>
-      <c r="F19" s="56">
-        <v>0.71</v>
-      </c>
-      <c r="G19" s="56">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="123" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="58">
-        <v>0.69</v>
-      </c>
-      <c r="E20" s="58">
-        <v>0.69</v>
-      </c>
-      <c r="F20" s="58">
-        <v>0.69</v>
-      </c>
-      <c r="G20" s="58">
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="124"/>
-      <c r="C21" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="58">
-        <v>0.5</v>
-      </c>
-      <c r="E21" s="58">
-        <v>0.5</v>
-      </c>
-      <c r="F21" s="58">
-        <v>0.5</v>
-      </c>
-      <c r="G21" s="58">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="124"/>
-      <c r="C22" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="58">
-        <v>0</v>
-      </c>
-      <c r="E22" s="58">
-        <v>0.5</v>
-      </c>
-      <c r="F22" s="58">
-        <v>0.5</v>
-      </c>
-      <c r="G22" s="58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="17" thickBot="1">
-      <c r="B23" s="125"/>
-      <c r="C23" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="60">
-        <v>0</v>
-      </c>
-      <c r="E23" s="60">
-        <v>1</v>
-      </c>
-      <c r="F23" s="60">
-        <v>1</v>
-      </c>
-      <c r="G23" s="60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="106" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="58">
-        <v>0.81</v>
-      </c>
-      <c r="E24" s="58">
-        <v>0.49</v>
-      </c>
-      <c r="F24" s="58">
-        <v>0.48</v>
-      </c>
-      <c r="G24" s="58">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="106"/>
-      <c r="C25" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="58">
-        <v>0.72</v>
-      </c>
-      <c r="E25" s="58">
-        <v>0.8</v>
-      </c>
-      <c r="F25" s="58">
-        <v>0.78</v>
-      </c>
-      <c r="G25" s="58">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="106"/>
-      <c r="C26" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="58">
-        <v>0.72</v>
-      </c>
-      <c r="E26" s="58">
-        <v>0.8</v>
-      </c>
-      <c r="F26" s="58">
-        <v>0.79</v>
-      </c>
-      <c r="G26" s="58">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="17" thickBot="1">
-      <c r="B27" s="107"/>
-      <c r="C27" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="60">
-        <v>0.72</v>
-      </c>
-      <c r="E27" s="60">
-        <v>0.81</v>
-      </c>
-      <c r="F27" s="60">
-        <v>0.77</v>
-      </c>
-      <c r="G27" s="60">
-        <v>0.91</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B19"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06DE2F5-F4A4-194A-8263-4AFED20D3274}">
-  <dimension ref="B1:N27"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
-    <col min="7" max="7" width="28.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:14" ht="17" thickBot="1"/>
-    <row r="2" spans="2:14" ht="24" thickBot="1">
-      <c r="B2" s="108" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="110"/>
-    </row>
-    <row r="3" spans="2:14" ht="17" thickBot="1">
-      <c r="B3" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14">
-      <c r="B4" s="111" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="41">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E4" s="41">
-        <v>0.39</v>
-      </c>
-      <c r="F4" s="41">
-        <v>0.41</v>
-      </c>
-      <c r="G4" s="41">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14">
-      <c r="B5" s="112"/>
-      <c r="C5" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="41">
-        <v>0.77</v>
-      </c>
-      <c r="E5" s="42">
-        <v>0.84</v>
-      </c>
-      <c r="F5" s="41">
-        <v>0.81</v>
-      </c>
-      <c r="G5" s="41">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14">
-      <c r="B6" s="112"/>
-      <c r="C6" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="41">
-        <v>0.82</v>
-      </c>
-      <c r="E6" s="41">
-        <v>0.88</v>
-      </c>
-      <c r="F6" s="41">
-        <v>0.91</v>
-      </c>
-      <c r="G6" s="41">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="17" thickBot="1">
-      <c r="B7" s="113"/>
-      <c r="C7" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="44">
-        <v>0.71</v>
-      </c>
-      <c r="E7" s="44">
-        <v>0.78</v>
-      </c>
-      <c r="F7" s="44">
-        <v>0.68</v>
-      </c>
-      <c r="G7" s="44">
-        <v>0.76</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="114" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="46">
-        <v>0.77</v>
-      </c>
-      <c r="E8" s="46">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F8" s="46">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="46">
-        <v>1.24</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="115"/>
-      <c r="C9" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="46">
-        <v>0.71</v>
-      </c>
-      <c r="E9" s="46">
-        <v>0.76</v>
-      </c>
-      <c r="F9" s="46">
-        <v>0.75</v>
-      </c>
-      <c r="G9" s="46">
-        <v>0.74</v>
-      </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="115"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="159"/>
       <c r="C10" s="45" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="46">
-        <v>0.67</v>
+        <v>0.72</v>
       </c>
       <c r="E10" s="46">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="F10" s="46">
-        <v>0.73</v>
+        <v>0.81</v>
       </c>
       <c r="G10" s="46">
         <v>0.79</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="2:14" ht="17" thickBot="1">
-      <c r="B11" s="116"/>
+    </row>
+    <row r="11" spans="2:12" ht="17" thickBot="1">
+      <c r="B11" s="160"/>
       <c r="C11" s="47" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="48">
-        <v>0.81</v>
+        <v>0.7</v>
       </c>
       <c r="E11" s="48">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F11" s="48">
-        <v>0.81</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G11" s="48">
-        <v>0.65</v>
-      </c>
-      <c r="I11" s="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="117" t="s">
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="161" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="49" t="s">
@@ -2826,14 +3039,13 @@
       <c r="G12" s="50">
         <v>2.2400000000000002</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="118"/>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="162"/>
       <c r="C13" s="49" t="s">
         <v>1</v>
       </c>
@@ -2850,8 +3062,8 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="118"/>
+    <row r="14" spans="2:12">
+      <c r="B14" s="162"/>
       <c r="C14" s="49" t="s">
         <v>2</v>
       </c>
@@ -2868,8 +3080,8 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="17" thickBot="1">
-      <c r="B15" s="119"/>
+    <row r="15" spans="2:12" ht="17" thickBot="1">
+      <c r="B15" s="163"/>
       <c r="C15" s="51" t="s">
         <v>3</v>
       </c>
@@ -2886,82 +3098,82 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="120" t="s">
+    <row r="16" spans="2:12">
+      <c r="B16" s="164" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="53" t="s">
         <v>0</v>
       </c>
       <c r="D16" s="54">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="E16" s="54">
-        <v>0.59</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F16" s="54">
         <v>0.49</v>
       </c>
       <c r="G16" s="54">
-        <v>1.2</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="121"/>
+      <c r="B17" s="165"/>
       <c r="C17" s="53" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="54">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="E17" s="54">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="F17" s="54">
         <v>0.78</v>
       </c>
       <c r="G17" s="54">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="121"/>
+      <c r="B18" s="165"/>
       <c r="C18" s="53" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="54">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="E18" s="54">
-        <v>0.79</v>
+        <v>0.81</v>
       </c>
       <c r="F18" s="54">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="G18" s="54">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="17" thickBot="1">
-      <c r="B19" s="122"/>
+      <c r="B19" s="166"/>
       <c r="C19" s="55" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="56">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="E19" s="56">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="F19" s="56">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="G19" s="56">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="123" t="s">
+      <c r="B20" s="149" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="57" t="s">
@@ -2971,17 +3183,17 @@
         <v>0.69</v>
       </c>
       <c r="E20" s="58">
-        <v>0.68</v>
+        <v>0.69</v>
       </c>
       <c r="F20" s="58">
         <v>0.69</v>
       </c>
       <c r="G20" s="58">
-        <v>1.37</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="124"/>
+      <c r="B21" s="150"/>
       <c r="C21" s="57" t="s">
         <v>1</v>
       </c>
@@ -2989,54 +3201,54 @@
         <v>0.5</v>
       </c>
       <c r="E21" s="58">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="F21" s="58">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="G21" s="58">
-        <v>0.61</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="124"/>
+      <c r="B22" s="150"/>
       <c r="C22" s="57" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="58">
+        <v>0</v>
+      </c>
+      <c r="E22" s="58">
         <v>0.5</v>
       </c>
-      <c r="E22" s="58">
-        <v>0.53</v>
-      </c>
       <c r="F22" s="58">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="G22" s="58">
-        <v>0.56999999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="17" thickBot="1">
-      <c r="B23" s="125"/>
+      <c r="B23" s="151"/>
       <c r="C23" s="59" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="60">
+        <v>0</v>
+      </c>
+      <c r="E23" s="60">
         <v>1</v>
       </c>
-      <c r="E23" s="60">
-        <v>0.97</v>
-      </c>
       <c r="F23" s="60">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G23" s="60">
-        <v>0.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="106" t="s">
-        <v>46</v>
+      <c r="B24" s="135" t="s">
+        <v>45</v>
       </c>
       <c r="C24" s="57" t="s">
         <v>0</v>
@@ -3045,67 +3257,67 @@
         <v>0.81</v>
       </c>
       <c r="E24" s="58">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F24" s="58">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="G24" s="58">
-        <v>1.17</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="106"/>
+      <c r="B25" s="135"/>
       <c r="C25" s="57" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="58">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="E25" s="58">
         <v>0.8</v>
       </c>
       <c r="F25" s="58">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="G25" s="58">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="106"/>
+      <c r="B26" s="135"/>
       <c r="C26" s="57" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="58">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="E26" s="58">
         <v>0.8</v>
       </c>
       <c r="F26" s="58">
-        <v>0.84</v>
+        <v>0.79</v>
       </c>
       <c r="G26" s="58">
-        <v>0.87</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="17" thickBot="1">
-      <c r="B27" s="107"/>
+      <c r="B27" s="136"/>
       <c r="C27" s="59" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="60">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="E27" s="60">
         <v>0.81</v>
       </c>
       <c r="F27" s="60">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="G27" s="60">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
     </row>
   </sheetData>
@@ -3124,11 +3336,553 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06DE2F5-F4A4-194A-8263-4AFED20D3274}">
+  <dimension ref="B1:N27"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H27" sqref="B2:H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="28.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="17" thickBot="1"/>
+    <row r="2" spans="2:14" ht="24" thickBot="1">
+      <c r="B2" s="152" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="154"/>
+    </row>
+    <row r="3" spans="2:14" ht="17" thickBot="1">
+      <c r="B3" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="155" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="41">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E4" s="41">
+        <v>0.39</v>
+      </c>
+      <c r="F4" s="41">
+        <v>0.41</v>
+      </c>
+      <c r="G4" s="41">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="156"/>
+      <c r="C5" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="41">
+        <v>0.77</v>
+      </c>
+      <c r="E5" s="42">
+        <v>0.84</v>
+      </c>
+      <c r="F5" s="41">
+        <v>0.81</v>
+      </c>
+      <c r="G5" s="41">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="156"/>
+      <c r="C6" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="41">
+        <v>0.82</v>
+      </c>
+      <c r="E6" s="41">
+        <v>0.88</v>
+      </c>
+      <c r="F6" s="41">
+        <v>0.91</v>
+      </c>
+      <c r="G6" s="41">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="17" thickBot="1">
+      <c r="B7" s="157"/>
+      <c r="C7" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="44">
+        <v>0.71</v>
+      </c>
+      <c r="E7" s="44">
+        <v>0.78</v>
+      </c>
+      <c r="F7" s="44">
+        <v>0.68</v>
+      </c>
+      <c r="G7" s="44">
+        <v>0.76</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="158" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="46">
+        <v>0.77</v>
+      </c>
+      <c r="E8" s="46">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F8" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="46">
+        <v>1.24</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="159"/>
+      <c r="C9" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="46">
+        <v>0.71</v>
+      </c>
+      <c r="E9" s="46">
+        <v>0.76</v>
+      </c>
+      <c r="F9" s="46">
+        <v>0.75</v>
+      </c>
+      <c r="G9" s="46">
+        <v>0.74</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="159"/>
+      <c r="C10" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="46">
+        <v>0.67</v>
+      </c>
+      <c r="E10" s="46">
+        <v>0.72</v>
+      </c>
+      <c r="F10" s="46">
+        <v>0.73</v>
+      </c>
+      <c r="G10" s="46">
+        <v>0.79</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="2:14" ht="17" thickBot="1">
+      <c r="B11" s="160"/>
+      <c r="C11" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="48">
+        <v>0.81</v>
+      </c>
+      <c r="E11" s="48">
+        <v>0.85</v>
+      </c>
+      <c r="F11" s="48">
+        <v>0.81</v>
+      </c>
+      <c r="G11" s="48">
+        <v>0.65</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="161" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="50">
+        <v>0.72</v>
+      </c>
+      <c r="E12" s="50">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F12" s="50">
+        <v>0.59</v>
+      </c>
+      <c r="G12" s="50">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="162"/>
+      <c r="C13" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="50">
+        <v>0.66</v>
+      </c>
+      <c r="E13" s="50">
+        <v>0.73</v>
+      </c>
+      <c r="F13" s="50">
+        <v>0.69</v>
+      </c>
+      <c r="G13" s="50">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="162"/>
+      <c r="C14" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="50">
+        <v>0.65</v>
+      </c>
+      <c r="E14" s="50">
+        <v>0.7</v>
+      </c>
+      <c r="F14" s="50">
+        <v>0.66</v>
+      </c>
+      <c r="G14" s="50">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="17" thickBot="1">
+      <c r="B15" s="163"/>
+      <c r="C15" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="52">
+        <v>0.69</v>
+      </c>
+      <c r="E15" s="52">
+        <v>0.83</v>
+      </c>
+      <c r="F15" s="52">
+        <v>0.81</v>
+      </c>
+      <c r="G15" s="52">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="164" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="54">
+        <v>0.86</v>
+      </c>
+      <c r="E16" s="54">
+        <v>0.59</v>
+      </c>
+      <c r="F16" s="54">
+        <v>0.49</v>
+      </c>
+      <c r="G16" s="54">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="165"/>
+      <c r="C17" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="54">
+        <v>0.74</v>
+      </c>
+      <c r="E17" s="54">
+        <v>0.77</v>
+      </c>
+      <c r="F17" s="54">
+        <v>0.78</v>
+      </c>
+      <c r="G17" s="54">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="165"/>
+      <c r="C18" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="54">
+        <v>0.73</v>
+      </c>
+      <c r="E18" s="54">
+        <v>0.79</v>
+      </c>
+      <c r="F18" s="54">
+        <v>0.77</v>
+      </c>
+      <c r="G18" s="54">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="17" thickBot="1">
+      <c r="B19" s="166"/>
+      <c r="C19" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="56">
+        <v>0.76</v>
+      </c>
+      <c r="E19" s="56">
+        <v>0.75</v>
+      </c>
+      <c r="F19" s="56">
+        <v>0.8</v>
+      </c>
+      <c r="G19" s="56">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="149" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="58">
+        <v>0.69</v>
+      </c>
+      <c r="E20" s="58">
+        <v>0.68</v>
+      </c>
+      <c r="F20" s="58">
+        <v>0.69</v>
+      </c>
+      <c r="G20" s="58">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="150"/>
+      <c r="C21" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="58">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F21" s="58">
+        <v>0.52</v>
+      </c>
+      <c r="G21" s="58">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="150"/>
+      <c r="C22" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="58">
+        <v>0.53</v>
+      </c>
+      <c r="F22" s="58">
+        <v>0.51</v>
+      </c>
+      <c r="G22" s="58">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="17" thickBot="1">
+      <c r="B23" s="151"/>
+      <c r="C23" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="60">
+        <v>1</v>
+      </c>
+      <c r="E23" s="60">
+        <v>0.97</v>
+      </c>
+      <c r="F23" s="60">
+        <v>0.92</v>
+      </c>
+      <c r="G23" s="60">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="135" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="58">
+        <v>0.81</v>
+      </c>
+      <c r="E24" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="58">
+        <v>0.44</v>
+      </c>
+      <c r="G24" s="58">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="135"/>
+      <c r="C25" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="58">
+        <v>0.74</v>
+      </c>
+      <c r="E25" s="58">
+        <v>0.8</v>
+      </c>
+      <c r="F25" s="58">
+        <v>0.79</v>
+      </c>
+      <c r="G25" s="58">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="135"/>
+      <c r="C26" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="58">
+        <v>0.75</v>
+      </c>
+      <c r="E26" s="58">
+        <v>0.8</v>
+      </c>
+      <c r="F26" s="58">
+        <v>0.84</v>
+      </c>
+      <c r="G26" s="58">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="17" thickBot="1">
+      <c r="B27" s="136"/>
+      <c r="C27" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="60">
+        <v>0.74</v>
+      </c>
+      <c r="E27" s="60">
+        <v>0.81</v>
+      </c>
+      <c r="F27" s="60">
+        <v>0.73</v>
+      </c>
+      <c r="G27" s="60">
+        <v>0.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88080FF-122E-2A4D-AEB0-1683C2720585}">
-  <dimension ref="B1:S34"/>
+  <dimension ref="B1:Q34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:B31"/>
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3145,22 +3899,22 @@
     <col min="11" max="11" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="17" thickBot="1"/>
-    <row r="2" spans="2:19" ht="24" thickBot="1">
-      <c r="B2" s="108" t="s">
+    <row r="1" spans="2:17" ht="17" thickBot="1"/>
+    <row r="2" spans="2:17" ht="24" thickBot="1">
+      <c r="B2" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="126"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="167"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="2:19" ht="17" thickBot="1">
+    <row r="3" spans="2:17" ht="17" thickBot="1">
       <c r="B3" s="61" t="s">
         <v>34</v>
       </c>
@@ -3189,8 +3943,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:19">
-      <c r="B4" s="111" t="s">
+    <row r="4" spans="2:17">
+      <c r="B4" s="155" t="s">
         <v>39</v>
       </c>
       <c r="C4" s="40" t="s">
@@ -3218,30 +3972,14 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19">
-      <c r="B5" s="112"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="156"/>
       <c r="C5" s="40" t="s">
         <v>1</v>
       </c>
@@ -3266,33 +4004,15 @@
       <c r="J5" s="67">
         <v>0.88</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="R5" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="S5" s="2">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19">
-      <c r="B6" s="112"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6" s="156"/>
       <c r="C6" s="40" t="s">
         <v>2</v>
       </c>
@@ -3317,33 +4037,15 @@
       <c r="J6" s="67">
         <v>0.89</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="S6" s="2">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" ht="17" thickBot="1">
-      <c r="B7" s="112"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="2:17" ht="17" thickBot="1">
+      <c r="B7" s="156"/>
       <c r="C7" s="40" t="s">
         <v>3</v>
       </c>
@@ -3369,33 +4071,15 @@
         <v>0.86</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0.87</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0.86</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0.86</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" ht="17" customHeight="1">
-      <c r="B8" s="127" t="s">
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="2:17" ht="17" customHeight="1">
+      <c r="B8" s="168" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="85" t="s">
@@ -3423,33 +4107,15 @@
         <v>0.3</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0.72</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="S8" s="2">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19">
-      <c r="B9" s="128"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="169"/>
       <c r="C9" s="86" t="s">
         <v>1</v>
       </c>
@@ -3475,11 +4141,9 @@
         <v>0.88</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="2:19">
-      <c r="B10" s="128"/>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="169"/>
       <c r="C10" s="86" t="s">
         <v>2</v>
       </c>
@@ -3505,11 +4169,9 @@
         <v>0.87</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="2:19" ht="17" thickBot="1">
-      <c r="B11" s="129"/>
+    </row>
+    <row r="11" spans="2:17" ht="17" thickBot="1">
+      <c r="B11" s="170"/>
       <c r="C11" s="87" t="s">
         <v>3</v>
       </c>
@@ -3535,11 +4197,9 @@
         <v>0.89</v>
       </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="2:19">
-      <c r="B12" s="115" t="s">
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12" s="159" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="45" t="s">
@@ -3567,11 +4227,9 @@
         <v>0.37</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="2:19">
-      <c r="B13" s="115"/>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="B13" s="159"/>
       <c r="C13" s="45" t="s">
         <v>1</v>
       </c>
@@ -3597,11 +4255,9 @@
         <v>0.84</v>
       </c>
       <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="2:19">
-      <c r="B14" s="115"/>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="B14" s="159"/>
       <c r="C14" s="45" t="s">
         <v>2</v>
       </c>
@@ -3627,11 +4283,9 @@
         <v>0.86</v>
       </c>
       <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="2:19" ht="17" thickBot="1">
-      <c r="B15" s="116"/>
+    </row>
+    <row r="15" spans="2:17" ht="17" thickBot="1">
+      <c r="B15" s="160"/>
       <c r="C15" s="47" t="s">
         <v>3</v>
       </c>
@@ -3657,11 +4311,9 @@
         <v>0.82</v>
       </c>
       <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="2:19">
-      <c r="B16" s="117" t="s">
+    </row>
+    <row r="16" spans="2:17">
+      <c r="B16" s="161" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="49" t="s">
@@ -3690,7 +4342,7 @@
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="118"/>
+      <c r="B17" s="162"/>
       <c r="C17" s="49" t="s">
         <v>1</v>
       </c>
@@ -3717,7 +4369,7 @@
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="118"/>
+      <c r="B18" s="162"/>
       <c r="C18" s="49" t="s">
         <v>2</v>
       </c>
@@ -3744,7 +4396,7 @@
       </c>
     </row>
     <row r="19" spans="2:10" ht="17" thickBot="1">
-      <c r="B19" s="119"/>
+      <c r="B19" s="163"/>
       <c r="C19" s="51" t="s">
         <v>3</v>
       </c>
@@ -3771,7 +4423,7 @@
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="120" t="s">
+      <c r="B20" s="164" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="53" t="s">
@@ -3800,7 +4452,7 @@
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="121"/>
+      <c r="B21" s="165"/>
       <c r="C21" s="53" t="s">
         <v>1</v>
       </c>
@@ -3827,7 +4479,7 @@
       </c>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="121"/>
+      <c r="B22" s="165"/>
       <c r="C22" s="53" t="s">
         <v>2</v>
       </c>
@@ -3854,7 +4506,7 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="17" thickBot="1">
-      <c r="B23" s="122"/>
+      <c r="B23" s="166"/>
       <c r="C23" s="55" t="s">
         <v>3</v>
       </c>
@@ -3881,7 +4533,7 @@
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="123" t="s">
+      <c r="B24" s="149" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="57" t="s">
@@ -3910,7 +4562,7 @@
       </c>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="124"/>
+      <c r="B25" s="150"/>
       <c r="C25" s="57" t="s">
         <v>1</v>
       </c>
@@ -3937,7 +4589,7 @@
       </c>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="124"/>
+      <c r="B26" s="150"/>
       <c r="C26" s="57" t="s">
         <v>2</v>
       </c>
@@ -3964,7 +4616,7 @@
       </c>
     </row>
     <row r="27" spans="2:10" ht="17" thickBot="1">
-      <c r="B27" s="125"/>
+      <c r="B27" s="151"/>
       <c r="C27" s="59" t="s">
         <v>3</v>
       </c>
@@ -3991,8 +4643,8 @@
       </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="106" t="s">
-        <v>46</v>
+      <c r="B28" s="135" t="s">
+        <v>45</v>
       </c>
       <c r="C28" s="57" t="s">
         <v>0</v>
@@ -4020,7 +4672,7 @@
       </c>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="106"/>
+      <c r="B29" s="135"/>
       <c r="C29" s="57" t="s">
         <v>1</v>
       </c>
@@ -4047,7 +4699,7 @@
       </c>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="106"/>
+      <c r="B30" s="135"/>
       <c r="C30" s="57" t="s">
         <v>2</v>
       </c>
@@ -4074,7 +4726,7 @@
       </c>
     </row>
     <row r="31" spans="2:10" ht="17" thickBot="1">
-      <c r="B31" s="107"/>
+      <c r="B31" s="136"/>
       <c r="C31" s="59" t="s">
         <v>3</v>
       </c>
@@ -4146,12 +4798,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB1F63B-5678-5E43-809D-46E26AC7998F}">
-  <dimension ref="B1:P30"/>
+  <dimension ref="B1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:B27"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L1" sqref="J1:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4164,19 +4816,19 @@
     <col min="8" max="8" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="17" thickBot="1"/>
-    <row r="2" spans="2:16" ht="24" thickBot="1">
-      <c r="B2" s="108" t="s">
+    <row r="1" spans="2:13" ht="17" thickBot="1"/>
+    <row r="2" spans="2:13" ht="24" thickBot="1">
+      <c r="B2" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="126"/>
-    </row>
-    <row r="3" spans="2:16" ht="17" thickBot="1">
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="167"/>
+    </row>
+    <row r="3" spans="2:13" ht="17" thickBot="1">
       <c r="B3" s="61" t="s">
         <v>34</v>
       </c>
@@ -4199,8 +4851,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:16">
-      <c r="B4" s="111" t="s">
+    <row r="4" spans="2:13">
+      <c r="B4" s="155" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="40" t="s">
@@ -4221,15 +4873,13 @@
       <c r="H4" s="67">
         <v>0.35</v>
       </c>
+      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="2:16">
-      <c r="B5" s="112"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="156"/>
       <c r="C5" s="40" t="s">
         <v>1</v>
       </c>
@@ -4248,15 +4898,13 @@
       <c r="H5" s="93">
         <v>0.85</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="2:16">
-      <c r="B6" s="112"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="156"/>
       <c r="C6" s="40" t="s">
         <v>2</v>
       </c>
@@ -4275,15 +4923,13 @@
       <c r="H6" s="67">
         <v>0.84</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="2:16" ht="17" thickBot="1">
-      <c r="B7" s="113"/>
+    </row>
+    <row r="7" spans="2:13" ht="17" thickBot="1">
+      <c r="B7" s="157"/>
       <c r="C7" s="43" t="s">
         <v>3</v>
       </c>
@@ -4305,13 +4951,10 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="114" t="s">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="158" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="45" t="s">
@@ -4332,16 +4975,13 @@
       <c r="H8" s="64">
         <v>0.45</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="115"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="159"/>
       <c r="C9" s="45" t="s">
         <v>1</v>
       </c>
@@ -4360,16 +5000,13 @@
       <c r="H9" s="46">
         <v>0.79</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="2:16">
-      <c r="B10" s="115"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="159"/>
       <c r="C10" s="45" t="s">
         <v>2</v>
       </c>
@@ -4388,16 +5025,13 @@
       <c r="H10" s="46">
         <v>0.87</v>
       </c>
-      <c r="J10" s="1"/>
+      <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="2:16" ht="17" thickBot="1">
-      <c r="B11" s="116"/>
+    </row>
+    <row r="11" spans="2:13" ht="17" thickBot="1">
+      <c r="B11" s="160"/>
       <c r="C11" s="47" t="s">
         <v>3</v>
       </c>
@@ -4416,16 +5050,13 @@
       <c r="H11" s="48">
         <v>0.68</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="2:16">
-      <c r="B12" s="117" t="s">
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="161" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="49" t="s">
@@ -4446,15 +5077,13 @@
       <c r="H12" s="69">
         <v>0.47</v>
       </c>
-      <c r="K12" s="1"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="2:16">
-      <c r="B13" s="118"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="162"/>
       <c r="C13" s="49" t="s">
         <v>1</v>
       </c>
@@ -4473,15 +5102,13 @@
       <c r="H13" s="71">
         <v>0.78</v>
       </c>
+      <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="2:16">
-      <c r="B14" s="118"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="162"/>
       <c r="C14" s="49" t="s">
         <v>2</v>
       </c>
@@ -4500,15 +5127,13 @@
       <c r="H14" s="71">
         <v>0.79</v>
       </c>
-      <c r="K14" s="1"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="2:16" ht="17" thickBot="1">
-      <c r="B15" s="119"/>
+    </row>
+    <row r="15" spans="2:13" ht="17" thickBot="1">
+      <c r="B15" s="163"/>
       <c r="C15" s="51" t="s">
         <v>3</v>
       </c>
@@ -4527,15 +5152,13 @@
       <c r="H15" s="73">
         <v>0.77</v>
       </c>
-      <c r="K15" s="1"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="2:16">
-      <c r="B16" s="120" t="s">
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="164" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="53" t="s">
@@ -4556,15 +5179,13 @@
       <c r="H16" s="75">
         <v>0.44</v>
       </c>
-      <c r="K16" s="1"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="2:16">
-      <c r="B17" s="121"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="165"/>
       <c r="C17" s="53" t="s">
         <v>1</v>
       </c>
@@ -4583,15 +5204,13 @@
       <c r="H17" s="77">
         <v>0.8</v>
       </c>
-      <c r="K17" s="1"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="2:16">
-      <c r="B18" s="121"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="165"/>
       <c r="C18" s="53" t="s">
         <v>2</v>
       </c>
@@ -4610,15 +5229,13 @@
       <c r="H18" s="77">
         <v>0.84</v>
       </c>
+      <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="2:16" ht="17" thickBot="1">
-      <c r="B19" s="122"/>
+    </row>
+    <row r="19" spans="2:13" ht="17" thickBot="1">
+      <c r="B19" s="166"/>
       <c r="C19" s="55" t="s">
         <v>3</v>
       </c>
@@ -4637,15 +5254,13 @@
       <c r="H19" s="79">
         <v>0.75</v>
       </c>
-      <c r="K19" s="1"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-    </row>
-    <row r="20" spans="2:16">
-      <c r="B20" s="123" t="s">
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="149" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="57" t="s">
@@ -4666,15 +5281,13 @@
       <c r="H20" s="81">
         <v>0.69</v>
       </c>
-      <c r="K20" s="1"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-    </row>
-    <row r="21" spans="2:16">
-      <c r="B21" s="124"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="150"/>
       <c r="C21" s="57" t="s">
         <v>1</v>
       </c>
@@ -4693,15 +5306,13 @@
       <c r="H21" s="58">
         <v>0.5</v>
       </c>
-      <c r="K21" s="1"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-    </row>
-    <row r="22" spans="2:16">
-      <c r="B22" s="124"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="150"/>
       <c r="C22" s="57" t="s">
         <v>2</v>
       </c>
@@ -4720,15 +5331,13 @@
       <c r="H22" s="58">
         <v>0</v>
       </c>
-      <c r="K22" s="1"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-    </row>
-    <row r="23" spans="2:16" ht="17" thickBot="1">
-      <c r="B23" s="125"/>
+    </row>
+    <row r="23" spans="2:13" ht="17" thickBot="1">
+      <c r="B23" s="151"/>
       <c r="C23" s="59" t="s">
         <v>3</v>
       </c>
@@ -4748,9 +5357,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
-      <c r="B24" s="106" t="s">
-        <v>46</v>
+    <row r="24" spans="2:13">
+      <c r="B24" s="135" t="s">
+        <v>45</v>
       </c>
       <c r="C24" s="57" t="s">
         <v>0</v>
@@ -4771,8 +5380,8 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
-      <c r="B25" s="106"/>
+    <row r="25" spans="2:13">
+      <c r="B25" s="135"/>
       <c r="C25" s="57" t="s">
         <v>1</v>
       </c>
@@ -4792,8 +5401,8 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="26" spans="2:16">
-      <c r="B26" s="106"/>
+    <row r="26" spans="2:13">
+      <c r="B26" s="135"/>
       <c r="C26" s="57" t="s">
         <v>2</v>
       </c>
@@ -4813,8 +5422,8 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="27" spans="2:16" ht="17" thickBot="1">
-      <c r="B27" s="107"/>
+    <row r="27" spans="2:13" ht="17" thickBot="1">
+      <c r="B27" s="136"/>
       <c r="C27" s="59" t="s">
         <v>3</v>
       </c>
@@ -4834,21 +5443,21 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:13">
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:13">
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:13">
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>

--- a/Summary/summary_binary.xlsx
+++ b/Summary/summary_binary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray/Desktop/26/Summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1892725-C147-9E43-94CF-408C37E94CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F282CF02-190C-D949-86E1-B1891A3088D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19700" xr2:uid="{A597E320-F4E8-FE4E-B4D6-DC9DFDF39562}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{A597E320-F4E8-FE4E-B4D6-DC9DFDF39562}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -1448,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8FFCBE-454C-6F44-83F3-6BC2C67E86E2}">
   <dimension ref="B1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:B23"/>
+    <sheetView topLeftCell="A2" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3339,7 +3339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06DE2F5-F4A4-194A-8263-4AFED20D3274}">
   <dimension ref="B1:N27"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="H27" sqref="B2:H27"/>
     </sheetView>
   </sheetViews>
